--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_arena_master.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_arena_master.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="master" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,22 +439,22 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>if2</t>
+          <t>action</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>param</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>param</t>
+          <t>actor</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>actor</t>
+          <t>version</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -472,51 +472,34 @@
           <t>text_EN</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>main</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>victory_comment</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>if_flag(sukutsu_arena_result, ==1)</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>defeat_comment</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_result, ==2)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
@@ -525,484 +508,479 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
+          <t>defeat_comment</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==2)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
           <t>registered</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>hasFlag,sukutsu_gladiator</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="H8" t="inlineStr">
+    <row r="9">
+      <c r="H9" t="inlineStr">
         <is>
           <t>greet1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>何の用だ、ひよっこ。見たところ、戦いの「せ」の字も知らなそうだな。</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>What do you want, greenhorn?</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>join_yes</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>闘士になりたい</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>I want to become a gladiator</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>join_no</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+          <t>join_yes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>いや、やめておく</t>
+          <t>闘士になりたい</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>No, I'll pass</t>
+          <t>I want to become a gladiator</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
+          <t>join_no</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>いや、やめておく</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>No, I'll pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>victory_comment</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>mod_flag(sukutsu_arena_result, =0)</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="H13" t="inlineStr">
+    <row r="14">
+      <c r="H14" t="inlineStr">
         <is>
           <t>win1</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>ふん、生きて戻ったか。まあ、最低限の働きはしたようだな。勘違いするなよ、雑魚が。</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Humph. You managed to survive? Barely. Don't let it go to your head, worm.</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
+    <row r="15">
+      <c r="B15" t="inlineStr">
         <is>
           <t>registered</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>defeat_comment</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>mod_flag(sukutsu_arena_result, =0)</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
+    <row r="17">
+      <c r="B17" t="inlineStr">
         <is>
           <t>defeat_stage2</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>if_flag(sukutsu_arena_failed_stage, &gt;=2)</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>defeat1</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>ハッ、獣にやられたか。情けない。まあ、初心者が負けるのは当然だな。</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Ha! Beaten by a beast? Pathetic. Well, beginners always lose.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="H18" t="inlineStr">
         <is>
+          <t>defeat1</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ハッ、獣にやられたか。情けない。まあ、初心者が負けるのは当然だな。</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Ha! Beaten by a beast? Pathetic. Well, beginners always lose.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="H19" t="inlineStr">
+        <is>
           <t>defeat1b</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>次は足を使え。止まったら死ぬぞ。</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Use your legs next time. Stand still and you die.</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
+    <row r="20">
+      <c r="B20" t="inlineStr">
         <is>
           <t>registered</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>defeat_stage2</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>defeat_stage3</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>if_flag(sukutsu_arena_failed_stage, &gt;=3)</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>defeat2</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>ケンタウロスに蹴り殺されたか？馬並みの速さについていけなかったな。</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Trampled by the centaur? Couldn't keep up with that horse-like speed, huh?</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="H22" t="inlineStr">
         <is>
+          <t>defeat2</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ケンタウロスに蹴り殺されたか？馬並みの速さについていけなかったな。</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Trampled by the centaur? Couldn't keep up with that horse-like speed, huh?</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="H23" t="inlineStr">
+        <is>
           <t>defeat2b</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>逃げるのは悪くない。だが、いつまでも逃げてばかりじゃ勝てないぞ。</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Running isn't bad. But you can't win by running forever.</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
+    <row r="24">
+      <c r="B24" t="inlineStr">
         <is>
           <t>registered</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>defeat_stage3</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>defeat_champion</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>if_flag(sukutsu_arena_failed_stage, &gt;=4)</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>defeat3</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>ミノタウロスか...あれは厄介だったろう。俺も初見では負けたさ。</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>The minotaur, huh... That one's tough. Even I lost the first time.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="H26" t="inlineStr">
         <is>
+          <t>defeat3</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ミノタウロスか...あれは厄介だったろう。俺も初見では負けたさ。</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>The minotaur, huh... That one's tough. Even I lost the first time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="H27" t="inlineStr">
+        <is>
           <t>defeat3b</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>奴の攻撃を見切れるようになれば、勝機はある。鍛え直して来い。</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Learn to read its attacks, and you'll have a chance. Go train more.</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
+    <row r="28">
+      <c r="B28" t="inlineStr">
         <is>
           <t>registered</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>defeat_champion</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>defeat4</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>...グランドマスターに挑んだのか。お前、無謀だな。</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>...You challenged the Grand Master? You're reckless.</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="H29" t="inlineStr">
+    <row r="30">
+      <c r="H30" t="inlineStr">
         <is>
           <t>defeat4b</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>だが、その無謀さは嫌いじゃない。もっと強くなってから、また来い。</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>But I don't hate that recklessness. Get stronger, then come back.</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
+    <row r="31">
+      <c r="B31" t="inlineStr">
         <is>
           <t>registered</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>registered</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>greet2</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>おう、闘士よ。今日は何の用だ？</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Hey, gladiator. What brings you here today?</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>battle_prep</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Challenge the arena</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c3</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Maybe later</t>
+          <t>Challenge the arena</t>
         </is>
       </c>
     </row>
@@ -1012,228 +990,228 @@
           <t>end</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Maybe later</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>join_yes</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>join1</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>おまえが？ハーッハッハ...まあいい、死にたいなら止めはしない。</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>You? Ha ha ha... Fine, if you want to die, I won't stop you.</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="E36" t="inlineStr">
+    <row r="37">
+      <c r="D37" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>sukutsu_gladiator,1</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="E37" t="inlineStr">
+    <row r="38">
+      <c r="D38" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>sukutsu_arena_stage,1</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="H38" t="inlineStr">
+    <row r="39">
+      <c r="H39" t="inlineStr">
         <is>
           <t>join2</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>これでお前も闘士だ。戦いの準備ができたら声をかけろ。</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>You're a gladiator now. Come talk to me when you're ready to fight.</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" t="inlineStr">
+    <row r="40">
+      <c r="B40" t="inlineStr">
         <is>
           <t>main</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>reload</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>join_no</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>reject1</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>話は終わりだ。ママのミルクでも飲んでな。</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>Then we're done here. Go drink your mama's milk.</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="B41" t="inlineStr">
+    <row r="42">
+      <c r="B42" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>battle_prep</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>stage2_prep</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>if_flag(sukutsu_arena_stage, &gt;=2)</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>stage1_advice</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>お前の最初の相手は「森の狼」だ。素早い攻撃には気をつけろ。</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Your first opponent is a Forest Wolf.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="H44" t="inlineStr">
         <is>
+          <t>stage1_advice</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>お前の最初の相手は「森の狼」だ。素早い攻撃には気をつけろ。</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Your first opponent is a Forest Wolf.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="H45" t="inlineStr">
+        <is>
           <t>stage1_tip</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>武器と防具は整えたか？回復アイテムもあると安心だぞ。</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>Got your weapons and armor ready?</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>battle_start_stage1</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>c_go1</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>準備できた、行く！</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>I'm ready, let's go!</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>registered</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
+          <t>battle_start_stage1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>c_cancel1</t>
+          <t>c_go1</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>もう少し準備してくる</t>
+          <t>準備できた、行く！</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Let me prepare a bit more</t>
+          <t>I'm ready, let's go!</t>
         </is>
       </c>
     </row>
@@ -1243,107 +1221,107 @@
           <t>registered</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>c_cancel1</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>もう少し準備してくる</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Let me prepare a bit more</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>registered</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>stage2_prep</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>stage3_prep</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>if_flag(sukutsu_arena_stage, &gt;=3)</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="H49" t="inlineStr">
+    <row r="50">
+      <c r="H50" t="inlineStr">
         <is>
           <t>stage2_advice</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>次の相手は「ケンタウロス」だ。奴の突進は威力があるぞ。</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Your next opponent is a Centaur.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>battle_start_stage2</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>c_go2</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>準備できた！</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Ready!</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>registered</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
+          <t>battle_start_stage2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>c_cancel2</t>
+          <t>c_go2</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>待ってくれ</t>
+          <t>準備できた！</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Wait</t>
+          <t>Ready!</t>
         </is>
       </c>
     </row>
@@ -1353,124 +1331,124 @@
           <t>registered</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>c_cancel2</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>待ってくれ</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>registered</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>stage3_prep</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>stage_champion</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>if_flag(sukutsu_arena_stage, &gt;=4)</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>stage3_advice</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>ここからが本番だ。「ミノタウロス」...奴は俺も手こずった相手だ。</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Now the real challenge. The Minotaur...</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="inlineStr">
         <is>
+          <t>stage3_advice</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>ここからが本番だ。「ミノタウロス」...奴は俺も手こずった相手だ。</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Now the real challenge. The Minotaur...</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="H56" t="inlineStr">
+        <is>
           <t>stage3_tip</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>力任せに攻めるな。奴の隙を狙え。</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>Don't just attack blindly.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>battle_start_stage3</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>c_go3</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>挑む！</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Challenge!</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>registered</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
+          <t>battle_start_stage3</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>c_cancel3</t>
+          <t>c_go3</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>...もう少し鍛えてくる</t>
+          <t>挑む！</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>...I need to train more</t>
+          <t>Challenge!</t>
         </is>
       </c>
     </row>
@@ -1480,102 +1458,102 @@
           <t>registered</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>c_cancel3</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>...もう少し鍛えてくる</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>...I need to train more</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>registered</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>stage_champion</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>champion_advice</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>よくぞここまで来た。最後の相手は...グランドマスターだ。</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>You've come far. Your final opponent is... the Grand Master.</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="H60" t="inlineStr">
+    <row r="61">
+      <c r="H61" t="inlineStr">
         <is>
           <t>champion_warning</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>覚悟はいいか？あれは...俺でも勝てるかわからん相手だ。</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>Are you prepared? Even I... am not sure I could beat that one.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>battle_start_champion</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>c_go_champ</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>俺は負けない</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>I won't lose</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>registered</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
+          <t>battle_start_champion</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>c_cancel_champ</t>
+          <t>c_go_champ</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>...考え直す</t>
+          <t>俺は負けない</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>...Let me think about it</t>
+          <t>I won't lose</t>
         </is>
       </c>
     </row>
@@ -1585,171 +1563,198 @@
           <t>registered</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>c_cancel_champ</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>...考え直す</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>...Let me think about it</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>registered</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>battle_start_stage1</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>sendoff1</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>よし、行け！生きて戻ってこい...できればな。</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>Go! Come back alive... if you can.</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="E65" t="inlineStr">
+    <row r="66">
+      <c r="D66" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 1);</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="E66" t="inlineStr">
+    <row r="67">
+      <c r="D67" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>battle_start_stage2</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>sendoff2</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>いい度胸だ。お前ならやれる！</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>Good spirit. You can do this!</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="E68" t="inlineStr">
+    <row r="69">
+      <c r="D69" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 2);</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="E69" t="inlineStr">
+    <row r="70">
+      <c r="D70" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>battle_start_stage3</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>sendoff3</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>...無茶するなよ。お前はもうただの新人じゃない。</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>...Don't be reckless.</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="E71" t="inlineStr">
+    <row r="72">
+      <c r="D72" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 3);</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="E72" t="inlineStr">
+    <row r="73">
+      <c r="D73" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>battle_start_champion</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>sendoff_champ</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>...見届けてやる。行って来い、闘士よ。</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>...I'll be watching. Go, gladiator.</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="E74" t="inlineStr">
+    <row r="75">
+      <c r="D75" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 4);</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="E75" t="inlineStr">
+    <row r="76">
+      <c r="D76" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_arena_master.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_arena_master.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="master" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sukutsu_arena_master" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,31 +484,11 @@
           <t>main</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>victory_comment</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_result, ==1)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>defeat_comment</t>
+          <t>victory_comment</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -518,7 +498,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>if_flag(sukutsu_arena_result, ==2)</t>
+          <t>if_flag(sukutsu_arena_result, ==1)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -530,63 +510,73 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
+          <t>defeat_comment</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==2)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
           <t>registered</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>hasFlag,sukutsu_gladiator</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="H9" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_gladiator, ==1)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>greet1</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>何の用だ、ひよっこ。見たところ、戦いの「せ」の字も知らなそうだな。</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>What do you want, greenhorn?</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>join_yes</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>闘士になりたい</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>I want to become a gladiator</t>
+          <t>何の用だ、ひよっこ。見たところ、戦いの「せ」の字も知らなそうだな。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>join_no</t>
+          <t>join_yes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -596,712 +586,617 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c1</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>いや、やめておく</t>
+          <t>闘士になりたい</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>No, I'll pass</t>
+          <t>闘士になりたい</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
+          <t>join_no</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>いや、やめておく</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>いや、やめておく</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>victory_comment</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="D15" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>mod_flag(sukutsu_arena_result, =0)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="H14" t="inlineStr">
+    <row r="16">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>win1</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>ふん、生きて戻ったか。まあ、最低限の働きはしたようだな。勘違いするなよ、雑魚が。</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Humph. You managed to survive? Barely. Don't let it go to your head, worm.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>registered</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>defeat_comment</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>mod_flag(sukutsu_arena_result, =0)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ふん、生きて戻ったか。まあ、最低限の働きはしたようだな。勘違いするなよ、雑魚が。</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>defeat_stage2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+          <t>registered</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>defeat_comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_failed_stage, &gt;=2)</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>mod_flag(sukutsu_arena_result, =0)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>defeat1</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>ハッ、獣にやられたか。情けない。まあ、初心者が負けるのは当然だな。</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Ha! Beaten by a beast? Pathetic. Well, beginners always lose.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>defeat1b</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>次は足を使え。止まったら死ぬぞ。</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Use your legs next time. Stand still and you die.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
+          <t>defeat_stage2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_failed_stage, &gt;=2)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>defeat1</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ハッ、獣にやられたか。情けない。まあ、初心者が負けるのは当然だな。次は足を使え。止まったら死ぬぞ。</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ハッ、獣にやられたか。情けない。まあ、初心者が負けるのは当然だな。次は足を使え。止まったら死ぬぞ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
           <t>registered</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>defeat_stage2</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>defeat_stage3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_failed_stage, &gt;=3)</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>defeat2</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>ケンタウロスに蹴り殺されたか？馬並みの速さについていけなかったな。</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Trampled by the centaur? Couldn't keep up with that horse-like speed, huh?</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>defeat2b</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>逃げるのは悪くない。だが、いつまでも逃げてばかりじゃ勝てないぞ。</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Running isn't bad. But you can't win by running forever.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
+          <t>defeat_stage3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_failed_stage, &gt;=3)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>defeat2</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ケンタウロスに蹴り殺されたか？馬並みの速さについていけなかったな。逃げるのは悪くない。だが、いつまでも逃げてばかりじゃ勝てないぞ。</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ケンタウロスに蹴り殺されたか？馬並みの速さについていけなかったな。逃げるのは悪くない。だが、いつまでも逃げてばかりじゃ勝てないぞ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
           <t>registered</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>defeat_stage3</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>defeat_champion</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_failed_stage, &gt;=4)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>defeat3</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>ミノタウロスか...あれは厄介だったろう。俺も初見では負けたさ。</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>The minotaur, huh... That one's tough. Even I lost the first time.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>defeat3b</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>奴の攻撃を見切れるようになれば、勝機はある。鍛え直して来い。</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Learn to read its attacks, and you'll have a chance. Go train more.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
+          <t>defeat_champion</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_failed_stage, &gt;=4)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>defeat3</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ミノタウロスか...あれは厄介だったろう。俺も初見では負けたさ。奴の攻撃を見切れるようになれば、勝機はある。鍛え直して来い。</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ミノタウロスか...あれは厄介だったろう。俺も初見では負けたさ。奴の攻撃を見切れるようになれば、勝機はある。鍛え直して来い。</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
           <t>registered</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>defeat_champion</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+    </row>
+    <row r="32">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>defeat4</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>...グランドマスターに挑んだのか。お前、無謀だな。</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>...You challenged the Grand Master? You're reckless.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>defeat4b</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>だが、その無謀さは嫌いじゃない。もっと強くなってから、また来い。</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>But I don't hate that recklessness. Get stronger, then come back.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>registered</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>registered</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>greet2</t>
-        </is>
-      </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>おう、闘士よ。今日は何の用だ？</t>
+          <t>...グランドマスターに挑んだのか。お前、無謀だな。だが、その無謀さは嫌いじゃない。もっと強くなってから、また来い。</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Hey, gladiator. What brings you here today?</t>
+          <t>...グランドマスターに挑んだのか。お前、無謀だな。だが、その無謀さは嫌いじゃない。もっと強くなってから、また来い。</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
+          <t>registered</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>registered</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>greet2</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>おう、闘士よ。今日は何の用だ？</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>おう、闘士よ。今日は何の用だ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
           <t>battle_prep</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>c3</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>戦いに挑む</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Challenge the arena</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>c4</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>また今度</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Maybe later</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>join_yes</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+    </row>
+    <row r="40">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>join1</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>おまえが？ハーッハッハ...まあいい、死にたいなら止めはしない。</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>You? Ha ha ha... Fine, if you want to die, I won't stop you.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="inlineStr">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>おまえが？ハーッハッハ...まあいい、死にたいなら止めはしない。これでお前も闘士だ。戦いの準備ができたら声をかけろ。</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>おまえが？ハーッハッハ...まあいい、死にたいなら止めはしない。これでお前も闘士だ。戦いの準備ができたら声をかけろ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>sukutsu_gladiator,1</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="inlineStr">
+    <row r="42">
+      <c r="D42" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>sukutsu_arena_stage,1</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>join2</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>これでお前も闘士だ。戦いの準備ができたら声をかけろ。</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>You're a gladiator now. Come talk to me when you're ready to fight.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
+    <row r="43">
+      <c r="B43" t="inlineStr">
         <is>
           <t>main</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>reload</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>join_no</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+    </row>
+    <row r="45">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>reject1</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>話は終わりだ。ママのミルクでも飲んでな。</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Then we're done here. Go drink your mama's milk.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>battle_prep</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>stage2_prep</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_stage, &gt;=2)</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>stage1_advice</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>お前の最初の相手は「森の狼」だ。素早い攻撃には気をつけろ。</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Your first opponent is a Forest Wolf.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>stage1_tip</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>武器と防具は整えたか？回復アイテムもあると安心だぞ。</t>
-        </is>
-      </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Got your weapons and armor ready?</t>
+          <t>話は終わりだ。ママのミルクでも飲んでな。</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>battle_start_stage1</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>c_go1</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>準備できた、行く！</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>I'm ready, let's go!</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>registered</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>c_cancel1</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>もう少し準備してくる</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Let me prepare a bit more</t>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>registered</t>
+          <t>stage2_prep</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_stage, &gt;=2)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>stage2_prep</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>stage3_prep</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_stage, &gt;=3)</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>stage1_advice</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>お前の最初の相手は「森の狼」だ。素早い攻撃には気をつけろ。武器と防具は整えたか？回復アイテムもあると安心だぞ。</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>お前の最初の相手は「森の狼」だ。素早い攻撃には気をつけろ。武器と防具は整えたか？回復アイテムもあると安心だぞ。</t>
         </is>
       </c>
     </row>
     <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>battle_start_stage1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>stage2_advice</t>
+          <t>c_go1</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>次の相手は「ケンタウロス」だ。奴の突進は威力があるぞ。</t>
+          <t>準備できた、行く！</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Your next opponent is a Centaur.</t>
+          <t>準備できた、行く！</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>battle_start_stage2</t>
+          <t>registered</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1311,17 +1206,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>c_go2</t>
+          <t>c_cancel1</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>準備できた！</t>
+          <t>もう少し準備してくる</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Ready!</t>
+          <t>もう少し準備してくる</t>
         </is>
       </c>
     </row>
@@ -1333,102 +1228,92 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>stage2_prep</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>stage3_prep</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_stage, &gt;=3)</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>stage2_advice</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>次の相手は「ケンタウロス」だ。奴の突進は威力があるぞ。</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>次の相手は「ケンタウロス」だ。奴の突進は威力があるぞ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>battle_start_stage2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>c_cancel2</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>待ってくれ</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Wait</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>registered</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>stage3_prep</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>stage_champion</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_stage, &gt;=4)</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>stage3_advice</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>ここからが本番だ。「ミノタウロス」...奴は俺も手こずった相手だ。</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Now the real challenge. The Minotaur...</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
       <c r="H56" t="inlineStr">
         <is>
-          <t>stage3_tip</t>
+          <t>c_go2</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>力任せに攻めるな。奴の隙を狙え。</t>
+          <t>準備できた！</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Don't just attack blindly.</t>
+          <t>準備できた！</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>battle_start_stage3</t>
+          <t>registered</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1438,17 +1323,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>c_go3</t>
+          <t>c_cancel2</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>挑む！</t>
+          <t>待ってくれ</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Challenge!</t>
+          <t>待ってくれ</t>
         </is>
       </c>
     </row>
@@ -1460,80 +1345,65 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>c_cancel3</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>...もう少し鍛えてくる</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>...I need to train more</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>registered</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>cancel</t>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>stage3_prep</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>stage_champion</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>champion_advice</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>よくぞここまで来た。最後の相手は...グランドマスターだ。</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>You've come far. Your final opponent is... the Grand Master.</t>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_stage, &gt;=4)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="61">
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>champion_warning</t>
+          <t>stage3_advice</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>覚悟はいいか？あれは...俺でも勝てるかわからん相手だ。</t>
+          <t>ここからが本番だ。「ミノタウロス」...奴は俺も手こずった相手だ。力任せに攻めるな。奴の隙を狙え。</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Are you prepared? Even I... am not sure I could beat that one.</t>
+          <t>ここからが本番だ。「ミノタウロス」...奴は俺も手こずった相手だ。力任せに攻めるな。奴の隙を狙え。</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>battle_start_champion</t>
+          <t>battle_start_stage3</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1543,17 +1413,17 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>c_go_champ</t>
+          <t>c_go3</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>俺は負けない</t>
+          <t>挑む！</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>I won't lose</t>
+          <t>挑む！</t>
         </is>
       </c>
     </row>
@@ -1570,17 +1440,17 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>c_cancel_champ</t>
+          <t>c_cancel3</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>...考え直す</t>
+          <t>...もう少し鍛えてくる</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>...Let me think about it</t>
+          <t>...もう少し鍛えてくる</t>
         </is>
       </c>
     </row>
@@ -1599,104 +1469,124 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>stage_champion</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>champion_advice</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>よくぞここまで来た。最後の相手は...グランドマスターだ。覚悟はいいか？あれは...俺でも勝てるかわからん相手だ。</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>よくぞここまで来た。最後の相手は...グランドマスターだ。覚悟はいいか？あれは...俺でも勝てるかわからん相手だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>battle_start_champion</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>c_go_champ</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>俺は負けない</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>俺は負けない</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>registered</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>c_cancel_champ</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>...考え直す</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>...考え直す</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>registered</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
           <t>battle_start_stage1</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+    </row>
+    <row r="71">
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
         <is>
           <t>sendoff1</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>よし、行け！生きて戻ってこい...できればな。</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Go! Come back alive... if you can.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 1);</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>battle_start_stage2</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>sendoff2</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>いい度胸だ。お前ならやれる！</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Good spirit. You can do this!</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 2);</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>battle_start_stage3</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>sendoff3</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>...無茶するなよ。お前はもうただの新人じゃない。</t>
-        </is>
-      </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>...Don't be reckless.</t>
+          <t>よし、行け！生きて戻ってこい...できればな。</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1598,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 3);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 1);</t>
         </is>
       </c>
     </row>
@@ -1722,39 +1612,156 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>battle_start_champion</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>sendoff_champ</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>...見届けてやる。行って来い、闘士よ。</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>...I'll be watching. Go, gladiator.</t>
+          <t>battle_start_stage2</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 4);</t>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>sendoff2</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>いい度胸だ。お前ならやれる！</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>いい度胸だ。お前ならやれる！</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="D76" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 2);</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>battle_start_stage3</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>sendoff3</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>...無茶するなよ。お前はもうただの新人じゃない。</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>...無茶するなよ。お前はもうただの新人じゃない。</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 3);</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>battle_start_champion</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>sendoff_champ</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>...見届けてやる。行って来い、闘士よ。</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>...見届けてやる。行って来い、闘士よ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 4);</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_arena_master.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_arena_master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,321 +664,311 @@
       </c>
     </row>
     <row r="16">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.rel.balgas, +5)</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>win1</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>ふん、生きて戻ったか。まあ、最低限の働きはしたようだな。勘違いするなよ、雑魚が。</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>ふん、生きて戻ったか。まあ、最低限の働きはしたようだな。勘違いするなよ、雑魚が。</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
+    <row r="18">
+      <c r="B18" t="inlineStr">
         <is>
           <t>registered</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>defeat_comment</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="D19" t="inlineStr">
+    <row r="20">
+      <c r="D20" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>mod_flag(sukutsu_arena_result, =0)</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
+    <row r="21">
+      <c r="B21" t="inlineStr">
         <is>
           <t>defeat_stage2</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>if_flag(sukutsu_arena_failed_stage, &gt;=2)</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="F21" t="inlineStr">
+    <row r="22">
+      <c r="F22" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>defeat1</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>ハッ、獣にやられたか。情けない。まあ、初心者が負けるのは当然だな。次は足を使え。止まったら死ぬぞ。</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>ハッ、獣にやられたか。情けない。まあ、初心者が負けるのは当然だな。次は足を使え。止まったら死ぬぞ。</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
+    <row r="23">
+      <c r="B23" t="inlineStr">
         <is>
           <t>registered</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>defeat_stage2</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
+    <row r="25">
+      <c r="B25" t="inlineStr">
         <is>
           <t>defeat_stage3</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>if_flag(sukutsu_arena_failed_stage, &gt;=3)</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="F25" t="inlineStr">
+    <row r="26">
+      <c r="F26" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>defeat2</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>ケンタウロスに蹴り殺されたか？馬並みの速さについていけなかったな。逃げるのは悪くない。だが、いつまでも逃げてばかりじゃ勝てないぞ。</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>ケンタウロスに蹴り殺されたか？馬並みの速さについていけなかったな。逃げるのは悪くない。だが、いつまでも逃げてばかりじゃ勝てないぞ。</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
+    <row r="27">
+      <c r="B27" t="inlineStr">
         <is>
           <t>registered</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>defeat_stage3</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
+    <row r="29">
+      <c r="B29" t="inlineStr">
         <is>
           <t>defeat_champion</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>if_flag(sukutsu_arena_failed_stage, &gt;=4)</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="F29" t="inlineStr">
+    <row r="30">
+      <c r="F30" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>defeat3</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>ミノタウロスか...あれは厄介だったろう。俺も初見では負けたさ。奴の攻撃を見切れるようになれば、勝機はある。鍛え直して来い。</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>ミノタウロスか...あれは厄介だったろう。俺も初見では負けたさ。奴の攻撃を見切れるようになれば、勝機はある。鍛え直して来い。</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
+    <row r="31">
+      <c r="B31" t="inlineStr">
         <is>
           <t>registered</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>defeat_champion</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="F32" t="inlineStr">
+    <row r="33">
+      <c r="F33" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>defeat4</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>...グランドマスターに挑んだのか。お前、無謀だな。だが、その無謀さは嫌いじゃない。もっと強くなってから、また来い。</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>...グランドマスターに挑んだのか。お前、無謀だな。だが、その無謀さは嫌いじゃない。もっと強くなってから、また来い。</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
+    <row r="34">
+      <c r="B34" t="inlineStr">
         <is>
           <t>registered</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>registered</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="F35" t="inlineStr">
+    <row r="36">
+      <c r="F36" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>greet2</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>おう、闘士よ。今日は何の用だ？</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>おう、闘士よ。今日は何の用だ？</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>battle_prep</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>battle_prep</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -988,17 +978,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c3</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
@@ -1010,48 +1000,63 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>join_yes</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="F40" t="inlineStr">
+    <row r="41">
+      <c r="F41" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>join1</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>おまえが？ハーッハッハ...まあいい、死にたいなら止めはしない。これでお前も闘士だ。戦いの準備ができたら声をかけろ。</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>おまえが？ハーッハッハ...まあいい、死にたいなら止めはしない。これでお前も闘士だ。戦いの準備ができたら声をかけろ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>sukutsu_gladiator,1</t>
         </is>
       </c>
     </row>
@@ -1063,84 +1068,74 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>sukutsu_gladiator,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>sukutsu_arena_stage,1</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" t="inlineStr">
+    <row r="44">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.rank,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.lily,30</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.balgas,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
         <is>
           <t>main</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>reload</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>join_no</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>reject1</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>話は終わりだ。ママのミルクでも飲んでな。</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>話は終わりだ。ママのミルクでも飲んでな。</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>battle_prep</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>stage2_prep</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_stage, &gt;=2)</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>pc</t>
         </is>
       </c>
     </row>
@@ -1152,353 +1147,343 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>stage1_advice</t>
+          <t>reject1</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>お前の最初の相手は「森の狼」だ。素早い攻撃には気をつけろ。武器と防具は整えたか？回復アイテムもあると安心だぞ。</t>
+          <t>話は終わりだ。ママのミルクでも飲んでな。</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>お前の最初の相手は「森の狼」だ。素早い攻撃には気をつけろ。武器と防具は整えたか？回復アイテムもあると安心だぞ。</t>
+          <t>話は終わりだ。ママのミルクでも飲んでな。</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>battle_start_stage1</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>c_go1</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>準備できた、行く！</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>準備できた、行く！</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>registered</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>c_cancel1</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>もう少し準備してくる</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>もう少し準備してくる</t>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>registered</t>
+          <t>stage2_prep</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_stage, &gt;=2)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>stage2_prep</t>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>stage1_advice</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>お前の最初の相手は「森の狼」だ。素早い攻撃には気をつけろ。武器と防具は整えたか？回復アイテムもあると安心だぞ。</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>お前の最初の相手は「森の狼」だ。素早い攻撃には気をつけろ。武器と防具は整えたか？回復アイテムもあると安心だぞ。</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>stage3_prep</t>
+          <t>battle_start_stage1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_stage, &gt;=3)</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>c_go1</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>準備できた、行く！</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>準備できた、行く！</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>registered</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>stage2_advice</t>
+          <t>c_cancel1</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>次の相手は「ケンタウロス」だ。奴の突進は威力があるぞ。</t>
+          <t>もう少し準備してくる</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>次の相手は「ケンタウロス」だ。奴の突進は威力があるぞ。</t>
+          <t>もう少し準備してくる</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>battle_start_stage2</t>
+          <t>registered</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>c_go2</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>準備できた！</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>準備できた！</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>registered</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>c_cancel2</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>待ってくれ</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>待ってくれ</t>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>stage2_prep</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>registered</t>
+          <t>stage3_prep</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_stage, &gt;=3)</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>stage3_prep</t>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>stage2_advice</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>次の相手は「ケンタウロス」だ。奴の突進は威力があるぞ。</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>次の相手は「ケンタウロス」だ。奴の突進は威力があるぞ。</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>stage_champion</t>
+          <t>battle_start_stage2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_stage, &gt;=4)</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>c_go2</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>準備できた！</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>準備できた！</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>registered</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>stage3_advice</t>
+          <t>c_cancel2</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>ここからが本番だ。「ミノタウロス」...奴は俺も手こずった相手だ。力任せに攻めるな。奴の隙を狙え。</t>
+          <t>待ってくれ</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>ここからが本番だ。「ミノタウロス」...奴は俺も手こずった相手だ。力任せに攻めるな。奴の隙を狙え。</t>
+          <t>待ってくれ</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>battle_start_stage3</t>
+          <t>registered</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>c_go3</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>挑む！</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>挑む！</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>registered</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>c_cancel3</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>...もう少し鍛えてくる</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>...もう少し鍛えてくる</t>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>stage3_prep</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>registered</t>
+          <t>stage_champion</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_stage, &gt;=4)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>stage_champion</t>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>stage3_advice</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>ここからが本番だ。「ミノタウロス」...奴は俺も手こずった相手だ。力任せに攻めるな。奴の隙を狙え。</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ここからが本番だ。「ミノタウロス」...奴は俺も手こずった相手だ。力任せに攻めるな。奴の隙を狙え。</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>battle_start_stage3</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>champion_advice</t>
+          <t>c_go3</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>よくぞここまで来た。最後の相手は...グランドマスターだ。覚悟はいいか？あれは...俺でも勝てるかわからん相手だ。</t>
+          <t>挑む！</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>よくぞここまで来た。最後の相手は...グランドマスターだ。覚悟はいいか？あれは...俺でも勝てるかわからん相手だ。</t>
+          <t>挑む！</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>battle_start_champion</t>
+          <t>registered</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1508,17 +1493,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>c_go_champ</t>
+          <t>c_cancel3</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>俺は負けない</t>
+          <t>...もう少し鍛えてくる</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>俺は負けない</t>
+          <t>...もう少し鍛えてくる</t>
         </is>
       </c>
     </row>
@@ -1530,89 +1515,109 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>stage_champion</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>champion_advice</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>よくぞここまで来た。最後の相手は...グランドマスターだ。覚悟はいいか？あれは...俺でも勝てるかわからん相手だ。</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>よくぞここまで来た。最後の相手は...グランドマスターだ。覚悟はいいか？あれは...俺でも勝てるかわからん相手だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>battle_start_champion</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>c_go_champ</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>俺は負けない</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>俺は負けない</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>registered</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
         <is>
           <t>c_cancel_champ</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>...考え直す</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>...考え直す</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="B69" t="inlineStr">
+    <row r="73">
+      <c r="B73" t="inlineStr">
         <is>
           <t>registered</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>battle_start_stage1</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>sendoff1</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>よし、行け！生きて戻ってこい...できればな。</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>よし、行け！生きて戻ってこい...できればな。</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 1);</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>end</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>battle_start_stage2</t>
+          <t>battle_start_stage1</t>
         </is>
       </c>
     </row>
@@ -1624,17 +1629,17 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>sendoff2</t>
+          <t>sendoff1</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>いい度胸だ。お前ならやれる！</t>
+          <t>よし、行け！生きて戻ってこい...できればな。</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>いい度胸だ。お前ならやれる！</t>
+          <t>よし、行け！生きて戻ってこい...できればな。</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1651,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 2);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 1);</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1665,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>battle_start_stage3</t>
+          <t>battle_start_stage2</t>
         </is>
       </c>
     </row>
@@ -1672,17 +1677,17 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>sendoff3</t>
+          <t>sendoff2</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>...無茶するなよ。お前はもうただの新人じゃない。</t>
+          <t>いい度胸だ。お前ならやれる！</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>...無茶するなよ。お前はもうただの新人じゃない。</t>
+          <t>いい度胸だ。お前ならやれる！</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1699,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 3);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 2);</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1713,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>battle_start_champion</t>
+          <t>battle_start_stage3</t>
         </is>
       </c>
     </row>
@@ -1720,17 +1725,17 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>sendoff_champ</t>
+          <t>sendoff3</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>...見届けてやる。行って来い、闘士よ。</t>
+          <t>...無茶するなよ。お前はもうただの新人じゃない。</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>...見届けてやる。行って来い、闘士よ。</t>
+          <t>...無茶するなよ。お前はもうただの新人じゃない。</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1747,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 4);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 3);</t>
         </is>
       </c>
     </row>
@@ -1756,12 +1761,60 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>battle_start_champion</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>sendoff_champ</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>...見届けてやる。行って来い、闘士よ。</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>...見届けてやる。行って来い、闘士よ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 4);</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="D89" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="D87" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_arena_master.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_arena_master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>victory_comment</t>
+          <t>rank_up_result_check</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>if_flag(sukutsu_arena_result, ==1)</t>
+          <t>if_flag(sukutsu_is_rank_up_result, ==1)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -510,7 +510,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>defeat_comment</t>
+          <t>victory_comment</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>if_flag(sukutsu_arena_result, ==2)</t>
+          <t>if_flag(sukutsu_arena_result, ==1)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -532,226 +532,191 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
+          <t>defeat_comment</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==2)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
           <t>registered</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>if_flag(sukutsu_gladiator, ==1)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>greet1</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>何の用だ、ひよっこ。見たところ、戦いの「せ」の字も知らなそうだな。</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>何の用だ、ひよっこ。見たところ、戦いの「せ」の字も知らなそうだな。</t>
-        </is>
-      </c>
-    </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>join_yes</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>闘士になりたい</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>闘士になりたい</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>rank_up_result_check</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>join_no</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>いや、やめておく</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>いや、やめておく</t>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>sukutsu_is_rank_up_result,0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>rank_up_victory_g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==1)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>victory_comment</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>rank_up_defeat_g</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==2)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>mod_flag(sukutsu_arena_result, =0)</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>registered</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.balgas, +5)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>rank_up_victory_g</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_result,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>win1</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>ふん、生きて戻ったか。まあ、最低限の働きはしたようだな。勘違いするなよ、雑魚が。</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>ふん、生きて戻ったか。まあ、最低限の働きはしたようだな。勘違いするなよ、雑魚が。</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>registered</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>defeat_comment</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="D20" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>mod_flag(sukutsu_arena_result, =0)</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>defeat_stage2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_failed_stage, &gt;=2)</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>rup_vic_v1</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>……ケッ、しぶとい奴だ。</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>……ケッ、しぶとい奴だ。</t>
         </is>
       </c>
     </row>
@@ -763,278 +728,278 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>defeat1</t>
+          <t>rup_vic_v2</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ハッ、獣にやられたか。情けない。まあ、初心者が負けるのは当然だな。次は足を使え。止まったら死ぬぞ。</t>
+          <t>まぁ、合格だ。</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>ハッ、獣にやられたか。情けない。まあ、初心者が負けるのは当然だな。次は足を使え。止まったら死ぬぞ。</t>
+          <t>まぁ、合格だ。</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>registered</t>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>defeat_stage2</t>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>defeat_stage3</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>if_flag(sukutsu_arena_failed_stage, &gt;=3)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="F26" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>defeat2</t>
+          <t>rup_vic_l1</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>ケンタウロスに蹴り殺されたか？馬並みの速さについていけなかったな。逃げるのは悪くない。だが、いつまでも逃げてばかりじゃ勝てないぞ。</t>
+          <t>お疲れ様でした。約束通り、ギルドの台帳にあなたの名を刻んでおきました。</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>ケンタウロスに蹴り殺されたか？馬並みの速さについていけなかったな。逃げるのは悪くない。だが、いつまでも逃げてばかりじゃ勝てないぞ。</t>
+          <t>お疲れ様でした。約束通り、ギルドの台帳にあなたの名を刻んでおきました。</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>registered</t>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>rup_vic_l2</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ランクG『屑肉』。ふふ、あなたにぴったりの、美味しそうな二つ名だと思いませんか？</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ランクG『屑肉』。ふふ、あなたにぴったりの、美味しそうな二つ名だと思いませんか？</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>defeat_stage3</t>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>rup_vic_l3</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>あぁ、それと……。あなたが暴れたおかげで、あちこちの備品が壊れました。次は戦うついでに、修理用の『石材』でも拾ってきていただけますか？</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>あぁ、それと……。あなたが暴れたおかげで、あちこちの備品が壊れました。次は戦うついでに、修理用の『石材』でも拾ってきていただけますか？</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>defeat_champion</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>if_flag(sukutsu_arena_failed_stage, &gt;=4)</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
+          <t>chitsii.arena.player.rank,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>EClass.pc.Pick(ThingGen.Create("bottle")); EClass.pc.Pick(ThingGen.Create("ration"));</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>defeat3</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>ミノタウロスか...あれは厄介だったろう。俺も初見では負けたさ。奴の攻撃を見切れるようになれば、勝機はある。鍛え直して来い。</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>ミノタウロスか...あれは厄介だったろう。俺も初見では負けたさ。奴の攻撃を見切れるようになれば、勝機はある。鍛え直して来い。</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>registered</t>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>rup_vic_sys</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>報酬として『バルガスの安酒』と『リリィの配給食』を受け取った。</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>報酬として『バルガスの安酒』と『リリィの配給食』を受け取った。</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>defeat_champion</t>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>defeat4</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>...グランドマスターに挑んだのか。お前、無謀だな。だが、その無謀さは嫌いじゃない。もっと強くなってから、また来い。</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>...グランドマスターに挑んだのか。お前、無謀だな。だが、その無謀さは嫌いじゃない。もっと強くなってから、また来い。</t>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>rank_up_defeat_g</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>registered</t>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_result,0</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>registered</t>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>greet2</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>おう、闘士よ。今日は何の用だ？</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>おう、闘士よ。今日は何の用だ？</t>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>battle_prep</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>rup_def_l1</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>あらあら……。期待外れでしたね。</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>あらあら……。期待外れでしたね。</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>cancel</t>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>rup_def_l2</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>死体袋の用意が無駄にならなくて何よりです。……次の方、どうぞ。</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>死体袋の用意が無駄にならなくて何よりです。……次の方、どうぞ。</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>join_yes</t>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
         </is>
       </c>
     </row>
@@ -1046,65 +1011,90 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>join1</t>
+          <t>greet1</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>おまえが？ハーッハッハ...まあいい、死にたいなら止めはしない。これでお前も闘士だ。戦いの準備ができたら声をかけろ。</t>
+          <t>何の用だ、ひよっこ。見たところ、戦いの「せ」の字も知らなそうだな。</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>おまえが？ハーッハッハ...まあいい、死にたいなら止めはしない。これでお前も闘士だ。戦いの準備ができたら声をかけろ。</t>
+          <t>何の用だ、ひよっこ。見たところ、戦いの「せ」の字も知らなそうだな。</t>
         </is>
       </c>
     </row>
     <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>join_yes</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>sukutsu_gladiator,1</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>闘士になりたい</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>闘士になりたい</t>
         </is>
       </c>
     </row>
     <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>join_no</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_stage,1</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>いや、やめておく</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>いや、やめておく</t>
         </is>
       </c>
     </row>
     <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.rank,0</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.lily,30</t>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>victory_comment</t>
         </is>
       </c>
     </row>
@@ -1116,347 +1106,412 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>chitsii.arena.rel.balgas,20</t>
+          <t>sukutsu_arena_result,0</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>reload</t>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>vic_msg</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>やるじゃねえか。だが調子に乗るなよ。</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>やるじゃねえか。だが調子に乗るなよ。</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>join_no</t>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>reject1</t>
+          <t>c_rank_check</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>話は終わりだ。ママのミルクでも飲んでな。</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>話は終わりだ。ママのミルクでも飲んでな。</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>battle_prep</t>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>また今度</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>stage2_prep</t>
+          <t>end</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_stage, &gt;=2)</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="inlineStr">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>defeat_comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_result,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="F55" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>stage1_advice</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>お前の最初の相手は「森の狼」だ。素早い攻撃には気をつけろ。武器と防具は整えたか？回復アイテムもあると安心だぞ。</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>お前の最初の相手は「森の狼」だ。素早い攻撃には気をつけろ。武器と防具は整えたか？回復アイテムもあると安心だぞ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>battle_start_stage1</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>c_go1</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>準備できた、行く！</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>準備できた、行く！</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>registered</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>c_cancel1</t>
+          <t>def_msg</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>もう少し準備してくる</t>
+          <t>無様だな。出直してこい。</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>もう少し準備してくる</t>
+          <t>無様だな。出直してこい。</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>registered</t>
+          <t>battle_prep</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>stage2_prep</t>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>stage3_prep</t>
+          <t>rank_up_check</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_stage, &gt;=3)</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>stage2_advice</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>次の相手は「ケンタウロス」だ。奴の突進は威力があるぞ。</t>
+          <t>また今度</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>次の相手は「ケンタウロス」だ。奴の突進は威力があるぞ。</t>
+          <t>また今度</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>battle_start_stage2</t>
+          <t>end</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>c_go2</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>準備できた！</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>準備できた！</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>registered</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>c_cancel2</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>待ってくれ</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>待ってくれ</t>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>rank_check</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>registered</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.ShowRankInfoLog();</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>stage3_prep</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>rank_info</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>現在のステータスをログに表示したぜ。確認しな。</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>現在のステータスをログに表示したぜ。確認しな。</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>stage_champion</t>
+          <t>battle_prep</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_stage, &gt;=4)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>stage3_advice</t>
+          <t>c_rank_check</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>ここからが本番だ。「ミノタウロス」...奴は俺も手こずった相手だ。力任せに攻めるな。奴の隙を狙え。</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>ここからが本番だ。「ミノタウロス」...奴は俺も手こずった相手だ。力任せに攻めるな。奴の隙を狙え。</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>battle_start_stage3</t>
+          <t>rank_up_check</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1466,24 +1521,24 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>c_go3</t>
+          <t>c_rank_up</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>挑む！</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>挑む！</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>registered</t>
+          <t>end</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1493,24 +1548,24 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>c_cancel3</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>...もう少し鍛えてくる</t>
+          <t>また今度</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>...もう少し鍛えてくる</t>
+          <t>また今度</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>registered</t>
+          <t>end</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1522,299 +1577,4153 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>stage_champion</t>
+          <t>rank_up_check</t>
         </is>
       </c>
     </row>
     <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>rank_up_not_ready</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.rank, !=0)</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>champion_advice</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>よくぞここまで来た。最後の相手は...グランドマスターだ。覚悟はいいか？あれは...俺でも勝てるかわからん相手だ。</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>よくぞここまで来た。最後の相手は...グランドマスターだ。覚悟はいいか？あれは...俺でも勝てるかわからん相手だ。</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>battle_start_champion</t>
+          <t>to_rank_up</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>c_go_champ</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>俺は負けない</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>俺は負けない</t>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.contribution, &gt;=10)</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>registered</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>c_cancel_champ</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>...考え直す</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>...考え直す</t>
+          <t>rank_up_not_ready</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>registered</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>rank_up_not_ready</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>rank_up_error</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>まだお前には早い。貢献度が足りねえか、すでに昇格済みだ。</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>まだお前には早い。貢献度が足りねえか、すでに昇格済みだ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>battle_start_stage1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="F75" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>to_rank_up</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="F81" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>sendoff1</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>よし、行け！生きて戻ってこい...できればな。</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>よし、行け！生きて戻ってこい...できればな。</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="D76" t="inlineStr">
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>rank_up_confirm</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>ほう…『屑肉の洗礼』を受けるつもりか？死んでも文句は言えんぞ。</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ほう…『屑肉の洗礼』を受けるつもりか？死んでも文句は言えんぞ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>start_rank_g</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>c_confirm_rup</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>問題ない</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>問題ない</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>c_cancel_rup</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>やめておく</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>やめておく</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>start_rank_g</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 1);</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>battle_start_stage2</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>sendoff2</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>いい度胸だ。お前ならやれる！</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>いい度胸だ。お前ならやれる！</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="D80" t="inlineStr">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] start_rank_g reached");</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 2);</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>battle_start_stage3</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>sendoff3</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>...無茶するなよ。お前はもうただの新人じゃない。</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>...無茶するなよ。お前はもうただの新人じゃない。</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 3);</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>battle_start_champion</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>sendoff_champ</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>...見届けてやる。行って来い、闘士よ。</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>...見届けてやる。行って来い、闘士よ。</t>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.SayAndStartDrama("sukutsu_arena_master", "いい度胸だ！", "drama_rank_up_G");</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="D88" t="inlineStr">
         <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>registered</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>greet_unranked</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==0)</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>greet_G</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==1)</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>greet_F</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==2)</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>greet_E</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==3)</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>greet_D</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==4)</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>greet_C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==5)</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>greet_B</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==6)</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>greet_A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==7)</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>greet_S</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==8)</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>greet_SS</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==9)</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>greet_SSS</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==10)</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>greet_U</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==11)</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>greet_Z</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==12)</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>greet_god_slayer</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==13)</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>greet_singularity</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==14)</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>greet_void_king</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==15)</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>greet_default</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>greet_unranked</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>greet_u</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>おう、ひよっこ。今日は何の用だ？</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>おう、ひよっこ。今日は何の用だ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>greet_G</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>greet_G</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>おう、『屑肉』よ。今日は何の用だ？</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>おう、『屑肉』よ。今日は何の用だ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>greet_F</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>greet_F</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>おう、『泥犬』よ。今日は何の用だ？</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>おう、『泥犬』よ。今日は何の用だ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>greet_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>greet_E</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>おう、『鉄屑』よ。今日は何の用だ？</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>おう、『鉄屑』よ。今日は何の用だ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>greet_D</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>greet_D</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>おう、『銅貨稼ぎ』よ。今日は何の用だ？</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>おう、『銅貨稼ぎ』よ。今日は何の用だ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>greet_C</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>greet_C</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>おう、『鴉』よ。今日は何の用だ？</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>おう、『鴉』よ。今日は何の用だ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>greet_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>greet_B</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>おう、『銀翼』よ。今日は何の用だ？</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>おう、『銀翼』よ。今日は何の用だ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>greet_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>greet_A</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>おう、『戦鬼』よ。今日は何の用だ？</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>おう、『戦鬼』よ。今日は何の用だ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>greet_S</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>greet_S</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>……待っていたぞ、『屠竜者』！何の用だ？</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>……待っていたぞ、『屠竜者』！何の用だ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>greet_SS</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>greet_SS</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>……『覇者』か。相変わらず凄まじい覇気だ。今日は何用だ？</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>……『覇者』か。相変わらず凄まじい覇気だ。今日は何用だ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>greet_SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>greet_SSS</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>……よお、『因果を断つ者』よ。酒でも飲みに来たか？</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>……よお、『因果を断つ者』よ。酒でも飲みに来たか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>greet_U</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>greet_U</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>……ははっ、『星砕き』よ。今日はどの星を落とすつもりだ？</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>……ははっ、『星砕き』よ。今日はどの星を落とすつもりだ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>greet_Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>greet_Z</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>……『終末の観測者』よ。お前の瞳には、この世界の最期が見えているのか？</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>……『終末の観測者』よ。お前の瞳には、この世界の最期が見えているのか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>greet_god_slayer</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>greet_gs</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>……『神殺し』よ。その翼、どこまで広げるつもりだ？</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>……『神殺し』よ。その翼、どこまで広げるつもりだ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>greet_singularity</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>greet_sg</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>……『特異点』よ。お前の存在だけで空間が歪む音がするぜ。用件を聞こうか。</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>……『特異点』よ。お前の存在だけで空間が歪む音がするぜ。用件を聞こうか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>greet_void_king</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>greet_vk</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>……『虚空の王』よ。この俺に命令があるのか？ それとも、ただの気まぐれか？</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>……『虚空の王』よ。この俺に命令があるのか？ それとも、ただの気まぐれか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>greet_default</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>greet_def</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>おう、闘士よ。今日は何の用だ？</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>おう、闘士よ。今日は何の用だ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>join_yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>join1</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>おまえが？ハーッハッハ...まあいい、死にたいなら止めはしない。これでお前も闘士だ。戦いの準備ができたら声をかけろ。</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>おまえが？ハーッハッハ...まあいい、死にたいなら止めはしない。これでお前も闘士だ。戦いの準備ができたら声をかけろ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>sukutsu_gladiator,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_stage,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.rank,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.lily,30</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.balgas,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>reload</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>join_no</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>reject1</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>話は終わりだ。ママのミルクでも飲んでな。</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>話は終わりだ。ママのミルクでも飲んでな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>stage2_prep</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_stage, &gt;=2)</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>stage1_advice</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>お前の最初の相手は「森の狼」だ。素早い攻撃には気をつけろ。武器と防具は整えたか？回復アイテムもあると安心だぞ。</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>お前の最初の相手は「森の狼」だ。素早い攻撃には気をつけろ。武器と防具は整えたか？回復アイテムもあると安心だぞ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>battle_start_stage1</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>c_go1</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>準備できた、行く！</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>準備できた、行く！</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>c_cancel1</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>もう少し準備してくる</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>もう少し準備してくる</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>stage2_prep</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>stage3_prep</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_stage, &gt;=3)</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>stage2_advice</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>次の相手は「ケンタウロス」だ。奴の突進は威力があるぞ。</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>次の相手は「ケンタウロス」だ。奴の突進は威力があるぞ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>battle_start_stage2</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>c_go2</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>準備できた！</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>準備できた！</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>c_cancel2</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>待ってくれ</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>待ってくれ</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>stage3_prep</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>stage_champion</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_stage, &gt;=4)</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>stage3_advice</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>ここからが本番だ。「ミノタウロス」...奴は俺も手こずった相手だ。力任せに攻めるな。奴の隙を狙え。</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>ここからが本番だ。「ミノタウロス」...奴は俺も手こずった相手だ。力任せに攻めるな。奴の隙を狙え。</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>battle_start_stage3</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>c_go3</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>挑む！</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>挑む！</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>c_cancel3</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>...もう少し鍛えてくる</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>...もう少し鍛えてくる</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>stage_champion</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>champion_advice</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>よくぞここまで来た。最後の相手は...グランドマスターだ。覚悟はいいか？あれは...俺でも勝てるかわからん相手だ。</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>よくぞここまで来た。最後の相手は...グランドマスターだ。覚悟はいいか？あれは...俺でも勝てるかわからん相手だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>battle_start_champion</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>c_go_champ</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>俺は負けない</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>俺は負けない</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>c_cancel_champ</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>...考え直す</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>...考え直す</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>battle_start_stage1</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>sendoff1</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>よし、行け！生きて戻ってこい...できればな。</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>よし、行け！生きて戻ってこい...できればな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="D268" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 4);</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="D89" t="inlineStr">
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 1, false);</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="D269" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>battle_start_stage2</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>sendoff2</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>いい度胸だ。お前ならやれる！</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>いい度胸だ。お前ならやれる！</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 2, false);</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="D273" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="D91" t="inlineStr">
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>battle_start_stage3</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>sendoff3</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>...無茶するなよ。お前はもうただの新人じゃない。</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>...無茶するなよ。お前はもうただの新人じゃない。</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 3, false);</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>battle_start_champion</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>sendoff_champ</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>...見届けてやる。行って来い、闘士よ。</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>...見届けてやる。行って来い、闘士よ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 4, false);</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="D283" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_arena_master.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_arena_master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K283"/>
+  <dimension ref="A1:K363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -891,52 +891,62 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>var q = Quest.Create("arena_stone_collection"); q.SetClient(EClass._zone.FindChara("sukutsu_receptionist")); EClass.game.quests.Start(q); Debug.Log("[SukutsuArena] Custom quest started: " + q.ToString());</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>rup_vic_quest</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>クエスト『修繕資材の調達』を受注した。</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>クエスト『修繕資材の調達』を受注した。</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
         <is>
           <t>registered_choices</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>rank_up_defeat_g</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_result,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="D36" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_arena_result,0</t>
         </is>
       </c>
     </row>
@@ -948,248 +958,218 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="F38" t="inlineStr">
+    <row r="40">
+      <c r="F40" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>rup_def_l1</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>あらあら……。期待外れでしたね。</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>あらあら……。期待外れでしたね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>rup_def_l2</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>死体袋の用意が無駄にならなくて何よりです。……次の方、どうぞ。</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>死体袋の用意が無駄にならなくて何よりです。……次の方、どうぞ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>greet1</t>
+          <t>rup_def_l2</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>何の用だ、ひよっこ。見たところ、戦いの「せ」の字も知らなそうだな。</t>
+          <t>死体袋の用意が無駄にならなくて何よりです。……次の方、どうぞ。</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>何の用だ、ひよっこ。見たところ、戦いの「せ」の字も知らなそうだな。</t>
+          <t>死体袋の用意が無駄にならなくて何よりです。……次の方、どうぞ。</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>join_yes</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>闘士になりたい</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>闘士になりたい</t>
+          <t>registered_choices</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>join_no</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>greet1</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>いや、やめておく</t>
+          <t>何の用だ、ひよっこ。見たところ、戦いの「せ」の字も知らなそうだな。</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>いや、やめておく</t>
+          <t>何の用だ、ひよっこ。見たところ、戦いの「せ」の字も知らなそうだな。</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
+          <t>join_yes</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>闘士になりたい</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>闘士になりたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>join_no</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>いや、やめておく</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>いや、やめておく</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>victory_comment</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="D46" t="inlineStr">
+    <row r="48">
+      <c r="D48" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>sukutsu_arena_result,0</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" t="inlineStr">
+    <row r="49">
+      <c r="F49" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>vic_msg</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>やるじゃねえか。だが調子に乗るなよ。</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>やるじゃねえか。だが調子に乗るなよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>battle_prep</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>rank_check</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>c_rank_check</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>rank_up_check</t>
+          <t>battle_prep</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1199,24 +1179,24 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>c_rank_up</t>
+          <t>c3</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>rank_check</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1226,158 +1206,158 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c_rank_check</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>debug_quest_accept</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>c_debug_quest</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>defeat_comment</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="D54" t="inlineStr">
+    <row r="57">
+      <c r="D57" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>sukutsu_arena_result,0</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="F55" t="inlineStr">
+    <row r="58">
+      <c r="F58" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>def_msg</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>無様だな。出直してこい。</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>無様だな。出直してこい。</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>battle_prep</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>rank_check</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>c_rank_check</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>rank_up_check</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>c_rank_up</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>battle_prep</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1387,433 +1367,473 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c3</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>debug_quest_accept</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>c_debug_quest</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>rank_check</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.ShowRankInfoLog();</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>rank_info</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>現在のステータスをログに表示したぜ。確認しな。</t>
+          <t>また今度</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>現在のステータスをログに表示したぜ。確認しな。</t>
+          <t>また今度</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>battle_prep</t>
+          <t>end</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
+      <c r="A65" t="inlineStr">
         <is>
           <t>rank_check</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>c_rank_check</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
-        </is>
-      </c>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>rank_up_check</t>
-        </is>
-      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>c_rank_up</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.ShowRankInfoLog();</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>rank_info</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>現在のステータスをログに表示したぜ。確認しな。</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>現在のステータスをログに表示したぜ。確認しな。</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>battle_prep</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>rank_up_check</t>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>rank_up_not_ready</t>
+          <t>rank_up_check</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.rank, !=0)</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>to_rank_up</t>
+          <t>debug_quest_accept</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.contribution, &gt;=10)</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>c_debug_quest</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>rank_up_not_ready</t>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>また今度</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>rank_up_not_ready</t>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>rank_up_error</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>まだお前には早い。貢献度が足りねえか、すでに昇格済みだ。</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>まだお前には早い。貢献度が足りねえか、すでに昇格済みだ。</t>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>battle_prep</t>
+          <t>rank_up_not_ready</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.rank, !=0)</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>rank_check</t>
+          <t>to_rank_up</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>c_rank_check</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.contribution, &gt;=10)</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>rank_up_check</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>c_rank_up</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
+          <t>rank_up_not_ready</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>また今度</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>また今度</t>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>rank_up_not_ready</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>cancel</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>rank_up_error</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>まだお前には早い。貢献度が足りねえか、すでに昇格済みだ。</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>まだお前には早い。貢献度が足りねえか、すでに昇格済みだ。</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>to_rank_up</t>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>rank_up_confirm</t>
+          <t>c_rank_check</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>ほう…『屑肉の洗礼』を受けるつもりか？死んでも文句は言えんぞ。</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>ほう…『屑肉の洗礼』を受けるつもりか？死んでも文句は言えんぞ。</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>start_rank_g</t>
+          <t>rank_up_check</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -1823,24 +1843,24 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>c_confirm_rup</t>
+          <t>c_rank_up</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>問題ない</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>問題ない</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>registered_choices</t>
+          <t>debug_quest_accept</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -1850,213 +1870,203 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>c_cancel_rup</t>
+          <t>c_debug_quest</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>やめておく</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>やめておく</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>to_rank_up</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>rank_up_confirm</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>ほう…『屑肉の洗礼』を受けるつもりか？死んでも文句は言えんぞ。</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ほう…『屑肉の洗礼』を受けるつもりか？死んでも文句は言えんぞ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>start_rank_g</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>c_confirm_rup</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>問題ない</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>問題ない</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
           <t>registered_choices</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>start_rank_g</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] start_rank_g reached");</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.SayAndStartDrama("sukutsu_arena_master", "いい度胸だ！", "drama_rank_up_G");</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>registered</t>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>c_cancel_rup</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>やめておく</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>やめておく</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>greet_unranked</t>
+          <t>registered_choices</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>if_flag(player.rank, ==0)</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>greet_G</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>if_flag(player.rank, ==1)</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>start_rank_g</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>greet_F</t>
-        </is>
-      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>if_flag(player.rank, ==2)</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] start_rank_g reached");</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>greet_E</t>
-        </is>
-      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>if_flag(player.rank, ==3)</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>Elin_SukutsuArena.ArenaManager.SayAndStartDrama("sukutsu_arena_master", "いい度胸だ！", "drama_rank_up_G");</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>greet_D</t>
-        </is>
-      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>if_flag(player.rank, ==4)</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>greet_C</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>if_flag(player.rank, ==5)</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>registered</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>greet_B</t>
+          <t>greet_unranked</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2066,7 +2076,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>if_flag(player.rank, ==6)</t>
+          <t>if_flag(player.rank, ==0)</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -2078,7 +2088,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>greet_A</t>
+          <t>greet_G</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2088,7 +2098,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>if_flag(player.rank, ==7)</t>
+          <t>if_flag(player.rank, ==1)</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -2100,7 +2110,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>greet_S</t>
+          <t>greet_F</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2110,7 +2120,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>if_flag(player.rank, ==8)</t>
+          <t>if_flag(player.rank, ==2)</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -2122,7 +2132,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>greet_SS</t>
+          <t>greet_E</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2132,7 +2142,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>if_flag(player.rank, ==9)</t>
+          <t>if_flag(player.rank, ==3)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -2144,7 +2154,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>greet_SSS</t>
+          <t>greet_D</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2154,7 +2164,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>if_flag(player.rank, ==10)</t>
+          <t>if_flag(player.rank, ==4)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -2166,7 +2176,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>greet_U</t>
+          <t>greet_C</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2176,7 +2186,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>if_flag(player.rank, ==11)</t>
+          <t>if_flag(player.rank, ==5)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -2188,7 +2198,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>greet_Z</t>
+          <t>greet_B</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2198,7 +2208,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>if_flag(player.rank, ==12)</t>
+          <t>if_flag(player.rank, ==6)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -2210,7 +2220,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>greet_god_slayer</t>
+          <t>greet_A</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2220,7 +2230,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>if_flag(player.rank, ==13)</t>
+          <t>if_flag(player.rank, ==7)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -2232,7 +2242,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>greet_singularity</t>
+          <t>greet_S</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2242,7 +2252,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>if_flag(player.rank, ==14)</t>
+          <t>if_flag(player.rank, ==8)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -2254,7 +2264,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>greet_void_king</t>
+          <t>greet_SS</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2264,7 +2274,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>if_flag(player.rank, ==15)</t>
+          <t>if_flag(player.rank, ==9)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -2276,170 +2286,180 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>greet_default</t>
+          <t>greet_SSS</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==10)</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>greet_U</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==11)</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>battle_prep</t>
+          <t>greet_Z</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==12)</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>rank_check</t>
+          <t>greet_god_slayer</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>c_rank_check</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==13)</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>rank_up_check</t>
+          <t>greet_singularity</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>c_rank_up</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==14)</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>greet_void_king</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>また今度</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>また今度</t>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==15)</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>cancel</t>
+          <t>greet_default</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>greet_unranked</t>
+          <t>registered_choices</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>greet_u</t>
+          <t>c3</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>おう、ひよっこ。今日は何の用だ？</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>おう、ひよっこ。今日は何の用だ？</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>battle_prep</t>
+          <t>rank_check</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2449,24 +2469,24 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c_rank_check</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>戦いに挑む</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>戦いに挑む</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>rank_check</t>
+          <t>rank_up_check</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2476,24 +2496,24 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>c_rank_check</t>
+          <t>c_rank_up</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>rank_up_check</t>
+          <t>debug_quest_accept</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2503,17 +2523,17 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>c_rank_up</t>
+          <t>c_debug_quest</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
     </row>
@@ -2559,510 +2579,345 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>greet_G</t>
+          <t>debug_quest_accept</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>greet_G</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>おう、『屑肉』よ。今日は何の用だ？</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>おう、『屑肉』よ。今日は何の用だ？</t>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaFlagManager.SetInt("tmp_quest_phase", (EClass.game.quests.Get("supply") != null ? EClass.game.quests.Get("supply").phase : (EClass.game.quests.IsCompleted("supply") ? 999 : -1)));</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>battle_prep</t>
+          <t>quest_not_started</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>if_flag(tmp_quest_phase, ==-1)</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>rank_check</t>
+          <t>quest_started</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>c_rank_check</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>if_flag(tmp_quest_phase, ==0)</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>rank_up_check</t>
+          <t>quest_already_done</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>c_rank_up</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>if_flag(tmp_quest_phase, ==999)</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>また今度</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>また今度</t>
+          <t>quest_not_started</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>cancel</t>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>quest_not_started</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>greet_F</t>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>greet_F</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>おう、『泥犬』よ。今日は何の用だ？</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>おう、『泥犬』よ。今日は何の用だ？</t>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>battle_prep</t>
-        </is>
-      </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>rank_check</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>c_rank_check</t>
+          <t>debug_q_1</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>あら、お手伝いしてくださるの？それは助かります。</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>あら、お手伝いしてくださるの？それは助かります。</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>rank_up_check</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>c_rank_up</t>
+          <t>debug_q_2</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>設備修繕のため、石材を10個ほど集めてきていただけますか？</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>設備修繕のため、石材を10個ほど集めてきていただけますか？</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>また今度</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>また今度</t>
+          <t>startQuest</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>supply</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>setQuestClient</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>greet_E</t>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>updateJournal</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="F135" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>greet_E</t>
+          <t>debug_q_3</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>おう、『鉄屑』よ。今日は何の用だ？</t>
+          <t>クエスト『修繕資材の調達』を受注した。</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>おう、『鉄屑』よ。今日は何の用だ？</t>
+          <t>クエスト『修繕資材の調達』を受注した。</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>battle_prep</t>
+          <t>quest_prog_check</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
+          <t>reload</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>rank_check</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>c_rank_check</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>quest_started</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>rank_up_check</t>
-        </is>
-      </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>c_rank_up</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>また今度</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>また今度</t>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>greet_D</t>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaFlagManager.SetInt("tmp_has_stones", EClass.pc.things.GetThingStack("rock").count);</t>
         </is>
       </c>
     </row>
     <row r="142">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>quest_complete</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>if_flag(tmp_has_stones, &gt;=10)</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>greet_D</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>おう、『銅貨稼ぎ』よ。今日は何の用だ？</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>おう、『銅貨稼ぎ』よ。今日は何の用だ？</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>battle_prep</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>debug_q_wait</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>戦いに挑む</t>
+          <t>まだ数が足りないようですね。石材を10個、お願いします。</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>戦いに挑む</t>
+          <t>まだ数が足りないようですね。石材を10個、お願いします。</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>rank_check</t>
+          <t>battle_prep</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3072,24 +2927,24 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>c_rank_check</t>
+          <t>c3</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>rank_up_check</t>
+          <t>rank_check</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3099,24 +2954,24 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>c_rank_up</t>
+          <t>c_rank_check</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>rank_up_check</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3126,268 +2981,223 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c_rank_up</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
+          <t>debug_quest_accept</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>c_debug_quest</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>greet_C</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>greet_C</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>おう、『鴉』よ。今日は何の用だ？</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>おう、『鴉』よ。今日は何の用だ？</t>
-        </is>
-      </c>
-    </row>
     <row r="150">
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>battle_prep</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>quest_complete</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>rank_check</t>
-        </is>
-      </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>c_rank_check</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>rank_up_check</t>
-        </is>
-      </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>c_rank_up</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>また今度</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>また今度</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>cancel</t>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>debug_q_thx</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>ありがとうございます！これで修繕が進みます。</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>ありがとうございます！これで修繕が進みます。</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>greet_B</t>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>EClass.pc.things.Find("rock", -1).Split(10).Destroy();</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="F156" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>greet_B</t>
+          <t>debug_q_del</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>おう、『銀翼』よ。今日は何の用だ？</t>
+          <t>石材を10個渡した。</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>おう、『銀翼』よ。今日は何の用だ？</t>
+          <t>石材を10個渡した。</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>battle_prep</t>
-        </is>
-      </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
+          <t>completeQuest</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>supply</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>rank_check</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>c_rank_check</t>
+          <t>debug_q_rew</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>報酬を受け取った。</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>報酬を受け取った。</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>rank_up_check</t>
+          <t>battle_prep</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3397,24 +3207,24 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>c_rank_up</t>
+          <t>c3</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>rank_check</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3424,214 +3234,209 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c_rank_check</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>debug_quest_accept</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>c_debug_quest</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>greet_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>greet_A</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>おう、『戦鬼』よ。今日は何の用だ？</t>
+          <t>また今度</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>おう、『戦鬼』よ。今日は何の用だ？</t>
+          <t>また今度</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>quest_already_done</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>debug_q_done</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>おかげさまで助かりました。また何かあればお願いしますね。</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>おかげさまで助かりました。また何かあればお願いしますね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="inlineStr">
+        <is>
           <t>battle_prep</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
         <is>
           <t>c3</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr">
+      <c r="I170" t="inlineStr">
         <is>
           <t>戦いに挑む</t>
         </is>
       </c>
-      <c r="J164" t="inlineStr">
+      <c r="J170" t="inlineStr">
         <is>
           <t>戦いに挑む</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>rank_check</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>c_rank_check</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>rank_up_check</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>c_rank_up</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>また今度</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>また今度</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>greet_S</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>greet_S</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>……待っていたぞ、『屠竜者』！何の用だ？</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>……待っていたぞ、『屠竜者』！何の用だ？</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>battle_prep</t>
+          <t>rank_check</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -3641,24 +3446,24 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c_rank_check</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>戦いに挑む</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>戦いに挑む</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>rank_check</t>
+          <t>rank_up_check</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -3668,24 +3473,24 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>c_rank_check</t>
+          <t>c_rank_up</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>rank_up_check</t>
+          <t>debug_quest_accept</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -3695,17 +3500,17 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>c_rank_up</t>
+          <t>c_debug_quest</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3556,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>greet_SS</t>
+          <t>greet_unranked</t>
         </is>
       </c>
     </row>
@@ -3763,17 +3568,17 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>greet_SS</t>
+          <t>greet_u</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>……『覇者』か。相変わらず凄まじい覇気だ。今日は何用だ？</t>
+          <t>おう、ひよっこ。今日は何の用だ？</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>……『覇者』か。相変わらず凄まじい覇気だ。今日は何用だ？</t>
+          <t>おう、ひよっこ。今日は何の用だ？</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3666,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>debug_quest_accept</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -3871,17 +3676,17 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c_debug_quest</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
     </row>
@@ -3893,70 +3698,70 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>greet_SSS</t>
-        </is>
-      </c>
-    </row>
     <row r="184">
-      <c r="F184" t="inlineStr">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>greet_G</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="F185" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>greet_SSS</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>……よお、『因果を断つ者』よ。酒でも飲みに来たか？</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>……よお、『因果を断つ者』よ。酒でも飲みに来たか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>battle_prep</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>greet_G</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>戦いに挑む</t>
+          <t>おう、『屑肉』よ。今日は何の用だ？</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>戦いに挑む</t>
+          <t>おう、『屑肉』よ。今日は何の用だ？</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>rank_check</t>
+          <t>battle_prep</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -3966,24 +3771,24 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>c_rank_check</t>
+          <t>c3</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>rank_up_check</t>
+          <t>rank_check</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -3993,24 +3798,24 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>c_rank_up</t>
+          <t>c_rank_check</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>rank_up_check</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4020,119 +3825,119 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c_rank_up</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
+          <t>debug_quest_accept</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>c_debug_quest</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>greet_U</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="F191" t="inlineStr">
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>greet_F</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="F193" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>greet_U</t>
-        </is>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>……ははっ、『星砕き』よ。今日はどの星を落とすつもりだ？</t>
-        </is>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>……ははっ、『星砕き』よ。今日はどの星を落とすつもりだ？</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>battle_prep</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>rank_check</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>c_rank_check</t>
+          <t>greet_F</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>おう、『泥犬』よ。今日は何の用だ？</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>おう、『泥犬』よ。今日は何の用だ？</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>rank_up_check</t>
+          <t>battle_prep</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4142,24 +3947,24 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>c_rank_up</t>
+          <t>c3</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>rank_check</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4169,146 +3974,146 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c_rank_check</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>debug_quest_accept</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>c_debug_quest</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>greet_Z</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>greet_Z</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>……『終末の観測者』よ。お前の瞳には、この世界の最期が見えているのか？</t>
+          <t>また今度</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>……『終末の観測者』よ。お前の瞳には、この世界の最期が見えているのか？</t>
+          <t>また今度</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>battle_prep</t>
+          <t>end</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>戦いに挑む</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>rank_check</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>c_rank_check</t>
-        </is>
-      </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
-        </is>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>greet_E</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>rank_up_check</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>c_rank_up</t>
+          <t>greet_E</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>おう、『鉄屑』よ。今日は何の用だ？</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>おう、『鉄屑』よ。今日は何の用だ？</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>battle_prep</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4318,65 +4123,105 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>c3</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>rank_check</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>greet_god_slayer</t>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>debug_quest_accept</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>greet_gs</t>
+          <t>c_debug_quest</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>……『神殺し』よ。その翼、どこまで広げるつもりだ？</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>……『神殺し』よ。その翼、どこまで広げるつもりだ？</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>battle_prep</t>
+          <t>end</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4386,146 +4231,146 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>戦いに挑む</t>
+          <t>また今度</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>戦いに挑む</t>
+          <t>また今度</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>rank_check</t>
+          <t>end</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>c_rank_check</t>
-        </is>
-      </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
-        </is>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>ランクを確認したい</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>rank_up_check</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>c_rank_up</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>greet_D</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>c4</t>
+          <t>greet_D</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>おう、『銅貨稼ぎ』よ。今日は何の用だ？</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>また今度</t>
+          <t>おう、『銅貨稼ぎ』よ。今日は何の用だ？</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>battle_prep</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>greet_singularity</t>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>greet_sg</t>
+          <t>c_rank_up</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>……『特異点』よ。お前の存在だけで空間が歪む音がするぜ。用件を聞こうか。</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>……『特異点』よ。お前の存在だけで空間が歪む音がするぜ。用件を聞こうか。</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>battle_prep</t>
+          <t>debug_quest_accept</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -4535,24 +4380,24 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c_debug_quest</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>戦いに挑む</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>戦いに挑む</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>rank_check</t>
+          <t>end</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -4562,119 +4407,119 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>c_rank_check</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>また今度</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>また今度</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>rank_up_check</t>
+          <t>end</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>c_rank_up</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
-        </is>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>昇格試験を受けたい</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>また今度</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>また今度</t>
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>greet_C</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>cancel</t>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>greet_C</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>おう、『鴉』よ。今日は何の用だ？</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>おう、『鴉』よ。今日は何の用だ？</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>greet_void_king</t>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>greet_vk</t>
+          <t>c_rank_check</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>……『虚空の王』よ。この俺に命令があるのか？ それとも、ただの気まぐれか？</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>……『虚空の王』よ。この俺に命令があるのか？ それとも、ただの気まぐれか？</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>battle_prep</t>
+          <t>rank_up_check</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -4684,24 +4529,24 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c_rank_up</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>戦いに挑む</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>戦いに挑む</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>rank_check</t>
+          <t>debug_quest_accept</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -4711,24 +4556,24 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>c_rank_check</t>
+          <t>c_debug_quest</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>rank_up_check</t>
+          <t>end</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -4738,17 +4583,17 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>c_rank_up</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>また今度</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>また今度</t>
         </is>
       </c>
     </row>
@@ -4760,70 +4605,70 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>また今度</t>
-        </is>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>また今度</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>cancel</t>
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>greet_B</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>greet_default</t>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>greet_B</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>おう、『銀翼』よ。今日は何の用だ？</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>おう、『銀翼』よ。今日は何の用だ？</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>greet_def</t>
+          <t>c3</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>おう、闘士よ。今日は何の用だ？</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>おう、闘士よ。今日は何の用だ？</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>battle_prep</t>
+          <t>rank_check</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -4833,24 +4678,24 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c_rank_check</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>戦いに挑む</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>戦いに挑む</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>rank_check</t>
+          <t>rank_up_check</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -4860,24 +4705,24 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>c_rank_check</t>
+          <t>c_rank_up</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>ランクを確認したい</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>rank_up_check</t>
+          <t>debug_quest_accept</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -4887,17 +4732,17 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>c_rank_up</t>
+          <t>c_debug_quest</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>昇格試験を受けたい</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4788,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>join_yes</t>
+          <t>greet_A</t>
         </is>
       </c>
     </row>
@@ -4955,96 +4800,171 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>join1</t>
+          <t>greet_A</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>おまえが？ハーッハッハ...まあいい、死にたいなら止めはしない。これでお前も闘士だ。戦いの準備ができたら声をかけろ。</t>
+          <t>おう、『戦鬼』よ。今日は何の用だ？</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>おまえが？ハーッハッハ...まあいい、死にたいなら止めはしない。これでお前も闘士だ。戦いの準備ができたら声をかけろ。</t>
+          <t>おう、『戦鬼』よ。今日は何の用だ？</t>
         </is>
       </c>
     </row>
     <row r="234">
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>sukutsu_gladiator,1</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="235">
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_stage,1</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="236">
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.rank,0</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
     </row>
     <row r="237">
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>debug_quest_accept</t>
+        </is>
+      </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.lily,30</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>c_debug_quest</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
     </row>
     <row r="238">
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.balgas,20</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>また今度</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>main</t>
+          <t>end</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>reload</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>join_no</t>
+          <t>greet_S</t>
         </is>
       </c>
     </row>
@@ -5056,82 +4976,132 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>reject1</t>
+          <t>greet_S</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>話は終わりだ。ママのミルクでも飲んでな。</t>
+          <t>……待っていたぞ、『屠竜者』！何の用だ？</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>話は終わりだ。ママのミルクでも飲んでな。</t>
+          <t>……待っていたぞ、『屠竜者』！何の用だ？</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>battle_prep</t>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>stage2_prep</t>
+          <t>rank_up_check</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_stage, &gt;=2)</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>debug_quest_accept</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>stage1_advice</t>
+          <t>c_debug_quest</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>お前の最初の相手は「森の狼」だ。素早い攻撃には気をつけろ。武器と防具は整えたか？回復アイテムもあると安心だぞ。</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>お前の最初の相手は「森の狼」だ。素早い攻撃には気をつけろ。武器と防具は整えたか？回復アイテムもあると安心だぞ。</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>battle_start_stage1</t>
+          <t>end</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5141,114 +5111,119 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>c_go1</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>準備できた、行く！</t>
+          <t>また今度</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>準備できた、行く！</t>
+          <t>また今度</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>registered_choices</t>
+          <t>end</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>c_cancel1</t>
-        </is>
-      </c>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>もう少し準備してくる</t>
-        </is>
-      </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>もう少し準備してくる</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>cancel</t>
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>greet_SS</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>stage2_prep</t>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>greet_SS</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>……『覇者』か。相変わらず凄まじい覇気だ。今日は何用だ？</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>……『覇者』か。相変わらず凄まじい覇気だ。今日は何用だ？</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>stage3_prep</t>
+          <t>battle_prep</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_stage, &gt;=3)</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>stage2_advice</t>
+          <t>c_rank_check</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>次の相手は「ケンタウロス」だ。奴の突進は威力があるぞ。</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>次の相手は「ケンタウロス」だ。奴の突進は威力があるぞ。</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>battle_start_stage2</t>
+          <t>rank_up_check</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -5258,24 +5233,24 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>c_go2</t>
+          <t>c_rank_up</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>準備できた！</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>準備できた！</t>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>registered_choices</t>
+          <t>debug_quest_accept</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -5285,58 +5260,63 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>c_cancel2</t>
+          <t>c_debug_quest</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>待ってくれ</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>待ってくれ</t>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>registered_choices</t>
+          <t>end</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>stage3_prep</t>
-        </is>
-      </c>
-    </row>
     <row r="256">
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>stage_champion</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>if_flag(sukutsu_arena_stage, &gt;=4)</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>greet_SSS</t>
         </is>
       </c>
     </row>
@@ -5348,24 +5328,24 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>stage3_advice</t>
+          <t>greet_SSS</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>ここからが本番だ。「ミノタウロス」...奴は俺も手こずった相手だ。力任せに攻めるな。奴の隙を狙え。</t>
+          <t>……よお、『因果を断つ者』よ。酒でも飲みに来たか？</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>ここからが本番だ。「ミノタウロス」...奴は俺も手こずった相手だ。力任せに攻めるな。奴の隙を狙え。</t>
+          <t>……よお、『因果を断つ者』よ。酒でも飲みに来たか？</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>battle_start_stage3</t>
+          <t>battle_prep</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -5375,24 +5355,24 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>c_go3</t>
+          <t>c3</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>挑む！</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>挑む！</t>
+          <t>戦いに挑む</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>registered_choices</t>
+          <t>rank_check</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -5402,328 +5382,1953 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>c_cancel3</t>
+          <t>c_rank_check</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>...もう少し鍛えてくる</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>...もう少し鍛えてくる</t>
+          <t>ランクを確認したい</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>registered_choices</t>
+          <t>rank_up_check</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>stage_champion</t>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>debug_quest_accept</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>c_debug_quest</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>champion_advice</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>よくぞここまで来た。最後の相手は...グランドマスターだ。覚悟はいいか？あれは...俺でも勝てるかわからん相手だ。</t>
+          <t>また今度</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>よくぞここまで来た。最後の相手は...グランドマスターだ。覚悟はいいか？あれは...俺でも勝てるかわからん相手だ。</t>
+          <t>また今度</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>greet_U</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>greet_U</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>……ははっ、『星砕き』よ。今日はどの星を落とすつもりだ？</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>……ははっ、『星砕き』よ。今日はどの星を落とすつもりだ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>debug_quest_accept</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>c_debug_quest</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>greet_Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>greet_Z</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>……『終末の観測者』よ。お前の瞳には、この世界の最期が見えているのか？</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>……『終末の観測者』よ。お前の瞳には、この世界の最期が見えているのか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>debug_quest_accept</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>c_debug_quest</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>greet_god_slayer</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>greet_gs</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>……『神殺し』よ。その翼、どこまで広げるつもりだ？</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>……『神殺し』よ。その翼、どこまで広げるつもりだ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>debug_quest_accept</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>c_debug_quest</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>greet_singularity</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>greet_sg</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>……『特異点』よ。お前の存在だけで空間が歪む音がするぜ。用件を聞こうか。</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>……『特異点』よ。お前の存在だけで空間が歪む音がするぜ。用件を聞こうか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>debug_quest_accept</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>c_debug_quest</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>greet_void_king</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>greet_vk</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>……『虚空の王』よ。この俺に命令があるのか？ それとも、ただの気まぐれか？</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>……『虚空の王』よ。この俺に命令があるのか？ それとも、ただの気まぐれか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>debug_quest_accept</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>c_debug_quest</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>greet_default</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>greet_def</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>おう、闘士よ。今日は何の用だ？</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>おう、闘士よ。今日は何の用だ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>戦いに挑む</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>rank_check</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>c_rank_check</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>ランクを確認したい</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>rank_up_check</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>c_rank_up</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>昇格試験を受けたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>debug_quest_accept</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>c_debug_quest</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>[DEBUG] リリィのクエストを受ける</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>また今度</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>join_yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>join1</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>おまえが？ハーッハッハ...まあいい、死にたいなら止めはしない。これでお前も闘士だ。戦いの準備ができたら声をかけろ。</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>おまえが？ハーッハッハ...まあいい、死にたいなら止めはしない。これでお前も闘士だ。戦いの準備ができたら声をかけろ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>sukutsu_gladiator,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_stage,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.rank,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.lily,30</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.balgas,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>reload</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>join_no</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>reject1</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>話は終わりだ。ママのミルクでも飲んでな。</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>話は終わりだ。ママのミルクでも飲んでな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>battle_prep</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>stage2_prep</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_stage, &gt;=2)</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>stage1_advice</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>お前の最初の相手は「森の狼」だ。素早い攻撃には気をつけろ。武器と防具は整えたか？回復アイテムもあると安心だぞ。</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>お前の最初の相手は「森の狼」だ。素早い攻撃には気をつけろ。武器と防具は整えたか？回復アイテムもあると安心だぞ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>battle_start_stage1</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>c_go1</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>準備できた、行く！</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>準備できた、行く！</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>c_cancel1</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>もう少し準備してくる</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>もう少し準備してくる</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>stage2_prep</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>stage3_prep</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_stage, &gt;=3)</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>stage2_advice</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>次の相手は「ケンタウロス」だ。奴の突進は威力があるぞ。</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>次の相手は「ケンタウロス」だ。奴の突進は威力があるぞ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>battle_start_stage2</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>c_go2</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>準備できた！</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>準備できた！</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>c_cancel2</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>待ってくれ</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>待ってくれ</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>stage3_prep</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>stage_champion</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_stage, &gt;=4)</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>stage3_advice</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>ここからが本番だ。「ミノタウロス」...奴は俺も手こずった相手だ。力任せに攻めるな。奴の隙を狙え。</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>ここからが本番だ。「ミノタウロス」...奴は俺も手こずった相手だ。力任せに攻めるな。奴の隙を狙え。</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>battle_start_stage3</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>c_go3</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>挑む！</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>挑む！</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>c_cancel3</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>...もう少し鍛えてくる</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>...もう少し鍛えてくる</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>stage_champion</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>champion_advice</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>よくぞここまで来た。最後の相手は...グランドマスターだ。覚悟はいいか？あれは...俺でも勝てるかわからん相手だ。</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>よくぞここまで来た。最後の相手は...グランドマスターだ。覚悟はいいか？あれは...俺でも勝てるかわからん相手だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="B343" t="inlineStr">
+        <is>
           <t>battle_start_champion</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H263" t="inlineStr">
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
         <is>
           <t>c_go_champ</t>
         </is>
       </c>
-      <c r="I263" t="inlineStr">
+      <c r="I343" t="inlineStr">
         <is>
           <t>俺は負けない</t>
         </is>
       </c>
-      <c r="J263" t="inlineStr">
+      <c r="J343" t="inlineStr">
         <is>
           <t>俺は負けない</t>
         </is>
       </c>
     </row>
-    <row r="264">
-      <c r="B264" t="inlineStr">
+    <row r="344">
+      <c r="B344" t="inlineStr">
         <is>
           <t>registered_choices</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H264" t="inlineStr">
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
         <is>
           <t>c_cancel_champ</t>
         </is>
       </c>
-      <c r="I264" t="inlineStr">
+      <c r="I344" t="inlineStr">
         <is>
           <t>...考え直す</t>
         </is>
       </c>
-      <c r="J264" t="inlineStr">
+      <c r="J344" t="inlineStr">
         <is>
           <t>...考え直す</t>
         </is>
       </c>
     </row>
-    <row r="265">
-      <c r="B265" t="inlineStr">
+    <row r="345">
+      <c r="B345" t="inlineStr">
         <is>
           <t>registered_choices</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr">
+      <c r="D345" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
+    <row r="346">
+      <c r="A346" t="inlineStr">
         <is>
           <t>battle_start_stage1</t>
         </is>
       </c>
     </row>
-    <row r="267">
-      <c r="F267" t="inlineStr">
+    <row r="347">
+      <c r="F347" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
+      <c r="H347" t="inlineStr">
         <is>
           <t>sendoff1</t>
         </is>
       </c>
-      <c r="I267" t="inlineStr">
+      <c r="I347" t="inlineStr">
         <is>
           <t>よし、行け！生きて戻ってこい...できればな。</t>
         </is>
       </c>
-      <c r="J267" t="inlineStr">
+      <c r="J347" t="inlineStr">
         <is>
           <t>よし、行け！生きて戻ってこい...できればな。</t>
         </is>
       </c>
     </row>
-    <row r="268">
-      <c r="D268" t="inlineStr">
+    <row r="348">
+      <c r="D348" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr">
+      <c r="E348" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 1, false);</t>
         </is>
       </c>
     </row>
-    <row r="269">
-      <c r="D269" t="inlineStr">
+    <row r="349">
+      <c r="D349" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
+    <row r="350">
+      <c r="A350" t="inlineStr">
         <is>
           <t>battle_start_stage2</t>
         </is>
       </c>
     </row>
-    <row r="271">
-      <c r="F271" t="inlineStr">
+    <row r="351">
+      <c r="F351" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
+      <c r="H351" t="inlineStr">
         <is>
           <t>sendoff2</t>
         </is>
       </c>
-      <c r="I271" t="inlineStr">
+      <c r="I351" t="inlineStr">
         <is>
           <t>いい度胸だ。お前ならやれる！</t>
         </is>
       </c>
-      <c r="J271" t="inlineStr">
+      <c r="J351" t="inlineStr">
         <is>
           <t>いい度胸だ。お前ならやれる！</t>
         </is>
       </c>
     </row>
-    <row r="272">
-      <c r="D272" t="inlineStr">
+    <row r="352">
+      <c r="D352" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr">
+      <c r="E352" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 2, false);</t>
         </is>
       </c>
     </row>
-    <row r="273">
-      <c r="D273" t="inlineStr">
+    <row r="353">
+      <c r="D353" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
+    <row r="354">
+      <c r="A354" t="inlineStr">
         <is>
           <t>battle_start_stage3</t>
         </is>
       </c>
     </row>
-    <row r="275">
-      <c r="F275" t="inlineStr">
+    <row r="355">
+      <c r="F355" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
+      <c r="H355" t="inlineStr">
         <is>
           <t>sendoff3</t>
         </is>
       </c>
-      <c r="I275" t="inlineStr">
+      <c r="I355" t="inlineStr">
         <is>
           <t>...無茶するなよ。お前はもうただの新人じゃない。</t>
         </is>
       </c>
-      <c r="J275" t="inlineStr">
+      <c r="J355" t="inlineStr">
         <is>
           <t>...無茶するなよ。お前はもうただの新人じゃない。</t>
         </is>
       </c>
     </row>
-    <row r="276">
-      <c r="D276" t="inlineStr">
+    <row r="356">
+      <c r="D356" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr">
+      <c r="E356" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 3, false);</t>
         </is>
       </c>
     </row>
-    <row r="277">
-      <c r="D277" t="inlineStr">
+    <row r="357">
+      <c r="D357" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
+    <row r="358">
+      <c r="A358" t="inlineStr">
         <is>
           <t>battle_start_champion</t>
         </is>
       </c>
     </row>
-    <row r="279">
-      <c r="F279" t="inlineStr">
+    <row r="359">
+      <c r="F359" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
+      <c r="H359" t="inlineStr">
         <is>
           <t>sendoff_champ</t>
         </is>
       </c>
-      <c r="I279" t="inlineStr">
+      <c r="I359" t="inlineStr">
         <is>
           <t>...見届けてやる。行って来い、闘士よ。</t>
         </is>
       </c>
-      <c r="J279" t="inlineStr">
+      <c r="J359" t="inlineStr">
         <is>
           <t>...見届けてやる。行って来い、闘士よ。</t>
         </is>
       </c>
     </row>
-    <row r="280">
-      <c r="D280" t="inlineStr">
+    <row r="360">
+      <c r="D360" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr">
+      <c r="E360" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattle(tg, 4, false);</t>
         </is>
       </c>
     </row>
-    <row r="281">
-      <c r="D281" t="inlineStr">
+    <row r="361">
+      <c r="D361" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
+    <row r="362">
+      <c r="A362" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="283">
-      <c r="D283" t="inlineStr">
+    <row r="363">
+      <c r="D363" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_arena_master.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_arena_master.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K825"/>
+  <dimension ref="A1:K827"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,6 +730,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_rank_up_trial, ==0)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -788,6 +803,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==0)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -846,6 +876,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==0)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -904,6 +949,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==0)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -962,6 +1022,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==0)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1020,6 +1095,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==0)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1078,6 +1168,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==0)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1317,7 +1422,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>EClass.pc.Pick(ThingGen.Create("bottle")); EClass.pc.Pick(ThingGen.Create("ration"));</t>
+          <t>EClass.pc.Pick(ThingGen.Create("wine")); EClass.pc.Pick(ThingGen.Create("ration"));</t>
         </is>
       </c>
     </row>
@@ -7086,6 +7191,21 @@
           <t>rank_up_not_ready</t>
         </is>
       </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_quest_target_name, ==0)</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -8426,6 +8546,21 @@
           <t>greet_default</t>
         </is>
       </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>if_flag(player.rank, ==0)</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -13165,6 +13300,21 @@
           <t>quest_none</t>
         </is>
       </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_quest_target_name, ==0)</t>
+        </is>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
@@ -13402,39 +13552,34 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>おい、見慣れねえ商人が来てるぞ。『ゼク』って名乗る怪しい野郎だ。話を聞いてみるか？</t>
+          <t>おい、見慣れねえ商人が来てるぞ。『ゼク』って名乗る怪しい野郎だ。</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>おい、見慣れねえ商人が来てるぞ。『ゼク』って名乗る怪しい野郎だ。話を聞いてみるか？</t>
+          <t>おい、見慣れねえ商人が来てるぞ。『ゼク』って名乗る怪しい野郎だ。</t>
         </is>
       </c>
     </row>
     <row r="755">
-      <c r="B755" t="inlineStr">
-        <is>
-          <t>quest_info</t>
-        </is>
-      </c>
-      <c r="D755" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>c_accept_zek</t>
+          <t>quest_zek_info2</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>話を聞いてみる</t>
+          <t>ロビーの隅にいるはずだ。興味があるなら話しかけてみろ。</t>
         </is>
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>話を聞いてみる</t>
+          <t>ロビーの隅にいるはずだ。興味があるなら話しかけてみろ。</t>
         </is>
       </c>
     </row>
@@ -13444,43 +13589,33 @@
           <t>registered_choices</t>
         </is>
       </c>
-      <c r="D756" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>c_decline_quest</t>
-        </is>
-      </c>
-      <c r="I756" t="inlineStr">
-        <is>
-          <t>今は結構だ</t>
-        </is>
-      </c>
-      <c r="J756" t="inlineStr">
-        <is>
-          <t>今は結構だ</t>
-        </is>
-      </c>
     </row>
     <row r="757">
-      <c r="B757" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
-      <c r="D757" t="inlineStr">
-        <is>
-          <t>cancel</t>
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>quest_zek_steal_bottle</t>
         </is>
       </c>
     </row>
     <row r="758">
-      <c r="A758" t="inlineStr">
-        <is>
-          <t>quest_lily_exp</t>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>quest_zek_bottle_info</t>
+        </is>
+      </c>
+      <c r="I758" t="inlineStr">
+        <is>
+          <t>ゼクの野郎が何やら企んでやがる。あいつに話しかけてみろ。</t>
+        </is>
+      </c>
+      <c r="J758" t="inlineStr">
+        <is>
+          <t>ゼクの野郎が何やら企んでやがる。あいつに話しかけてみろ。</t>
         </is>
       </c>
     </row>
@@ -13492,261 +13627,191 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>quest_lily_info</t>
+          <t>quest_zek_bottle_info2</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>リリィが何やら困ってるらしいぜ。『虚空の共鳴瓶』とかいう怪しげなアイテムを作りたいとか...手伝ってやるか？</t>
+          <t>……俺は関わらねえが、お前の判断だ。</t>
         </is>
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>リリィが何やら困ってるらしいぜ。『虚空の共鳴瓶』とかいう怪しげなアイテムを作りたいとか...手伝ってやるか？</t>
+          <t>……俺は関わらねえが、お前の判断だ。</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>quest_info</t>
-        </is>
-      </c>
-      <c r="D760" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>c_accept_lily</t>
-        </is>
-      </c>
-      <c r="I760" t="inlineStr">
-        <is>
-          <t>手伝ってみる</t>
-        </is>
-      </c>
-      <c r="J760" t="inlineStr">
-        <is>
-          <t>手伝ってみる</t>
+          <t>registered_choices</t>
         </is>
       </c>
     </row>
     <row r="761">
-      <c r="B761" t="inlineStr">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>quest_zek_steal_soulgem</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>quest_zek_soulgem_info</t>
+        </is>
+      </c>
+      <c r="I762" t="inlineStr">
+        <is>
+          <t>ゼクがカインの『魂宝石』について何か言いたいことがあるらしい。</t>
+        </is>
+      </c>
+      <c r="J762" t="inlineStr">
+        <is>
+          <t>ゼクがカインの『魂宝石』について何か言いたいことがあるらしい。</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>quest_zek_soulgem_info2</t>
+        </is>
+      </c>
+      <c r="I763" t="inlineStr">
+        <is>
+          <t>あいつのところへ行け。……慎重に選べよ。</t>
+        </is>
+      </c>
+      <c r="J763" t="inlineStr">
+        <is>
+          <t>あいつのところへ行け。……慎重に選べよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="B764" t="inlineStr">
         <is>
           <t>registered_choices</t>
         </is>
       </c>
-      <c r="D761" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>c_decline_quest</t>
-        </is>
-      </c>
-      <c r="I761" t="inlineStr">
-        <is>
-          <t>遠慮しておく</t>
-        </is>
-      </c>
-      <c r="J761" t="inlineStr">
-        <is>
-          <t>遠慮しておく</t>
-        </is>
-      </c>
-    </row>
-    <row r="762">
-      <c r="B762" t="inlineStr">
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>quest_lily_exp</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="F766" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>quest_lily_info</t>
+        </is>
+      </c>
+      <c r="I766" t="inlineStr">
+        <is>
+          <t>リリィが何やら困ってるらしいぜ。『虚空の共鳴瓶』とかいう怪しげなアイテムを作りたいとか。</t>
+        </is>
+      </c>
+      <c r="J766" t="inlineStr">
+        <is>
+          <t>リリィが何やら困ってるらしいぜ。『虚空の共鳴瓶』とかいう怪しげなアイテムを作りたいとか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="F767" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>quest_lily_info2</t>
+        </is>
+      </c>
+      <c r="I767" t="inlineStr">
+        <is>
+          <t>あいつのところへ行って話を聞いてやれ。</t>
+        </is>
+      </c>
+      <c r="J767" t="inlineStr">
+        <is>
+          <t>あいつのところへ行って話を聞いてやれ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="B768" t="inlineStr">
         <is>
           <t>registered_choices</t>
         </is>
       </c>
-      <c r="D762" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>quest_zek_steal_bottle</t>
-        </is>
-      </c>
-    </row>
-    <row r="764">
-      <c r="F764" t="inlineStr">
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>quest_lily_private</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="F770" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H764" t="inlineStr">
-        <is>
-          <t>quest_zek_bottle_info</t>
-        </is>
-      </c>
-      <c r="I764" t="inlineStr">
-        <is>
-          <t>ゼクの野郎が何やら企んでやがる。リリィの瓶を『すり替えろ』だと？……お前の判断に任せる。</t>
-        </is>
-      </c>
-      <c r="J764" t="inlineStr">
-        <is>
-          <t>ゼクの野郎が何やら企んでやがる。リリィの瓶を『すり替えろ』だと？……お前の判断に任せる。</t>
-        </is>
-      </c>
-    </row>
-    <row r="765">
-      <c r="B765" t="inlineStr">
-        <is>
-          <t>quest_info</t>
-        </is>
-      </c>
-      <c r="D765" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H765" t="inlineStr">
-        <is>
-          <t>c_accept_zek_bottle</t>
-        </is>
-      </c>
-      <c r="I765" t="inlineStr">
-        <is>
-          <t>話を聞く</t>
-        </is>
-      </c>
-      <c r="J765" t="inlineStr">
-        <is>
-          <t>話を聞く</t>
-        </is>
-      </c>
-    </row>
-    <row r="766">
-      <c r="B766" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
-      <c r="D766" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H766" t="inlineStr">
-        <is>
-          <t>c_decline_quest</t>
-        </is>
-      </c>
-      <c r="I766" t="inlineStr">
-        <is>
-          <t>関わらない</t>
-        </is>
-      </c>
-      <c r="J766" t="inlineStr">
-        <is>
-          <t>関わらない</t>
-        </is>
-      </c>
-    </row>
-    <row r="767">
-      <c r="B767" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
-      <c r="D767" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>quest_zek_steal_soulgem</t>
-        </is>
-      </c>
-    </row>
-    <row r="769">
-      <c r="F769" t="inlineStr">
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>quest_lily_priv_info</t>
+        </is>
+      </c>
+      <c r="I770" t="inlineStr">
+        <is>
+          <t>リリィが『自分の過去』について話したいらしい。……珍しいな。</t>
+        </is>
+      </c>
+      <c r="J770" t="inlineStr">
+        <is>
+          <t>リリィが『自分の過去』について話したいらしい。……珍しいな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="F771" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H769" t="inlineStr">
-        <is>
-          <t>quest_zek_soulgem_info</t>
-        </is>
-      </c>
-      <c r="I769" t="inlineStr">
-        <is>
-          <t>ゼクがカインの『魂宝石』を買い取りたいと言ってる。……あいつの魂を売るのか、リリィに返すのか、お前が決めろ。</t>
-        </is>
-      </c>
-      <c r="J769" t="inlineStr">
-        <is>
-          <t>ゼクがカインの『魂宝石』を買い取りたいと言ってる。……あいつの魂を売るのか、リリィに返すのか、お前が決めろ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="770">
-      <c r="B770" t="inlineStr">
-        <is>
-          <t>quest_info</t>
-        </is>
-      </c>
-      <c r="D770" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H770" t="inlineStr">
-        <is>
-          <t>c_accept_zek_soulgem</t>
-        </is>
-      </c>
-      <c r="I770" t="inlineStr">
-        <is>
-          <t>話を聞く</t>
-        </is>
-      </c>
-      <c r="J770" t="inlineStr">
-        <is>
-          <t>話を聞く</t>
-        </is>
-      </c>
-    </row>
-    <row r="771">
-      <c r="B771" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
-      <c r="D771" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>c_decline_quest</t>
+          <t>quest_lily_priv_info2</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>後にする</t>
+          <t>興味があるならあいつに話しかけてやれ。</t>
         </is>
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>後にする</t>
+          <t>興味があるならあいつに話しかけてやれ。</t>
         </is>
       </c>
     </row>
@@ -13756,16 +13821,11 @@
           <t>registered_choices</t>
         </is>
       </c>
-      <c r="D772" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>quest_upper_existence</t>
+          <t>quest_makuma</t>
         </is>
       </c>
     </row>
@@ -13777,44 +13837,39 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>quest_upper_info</t>
+          <t>quest_makuma_info</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>リリィが『高次元存在』について話したがってるらしい。……あいつら『観客』の正体を知りたいか？</t>
+          <t>怪しい連中が闘技場をうろついてる。『マクマ』とかいう組織らしい。</t>
         </is>
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>リリィが『高次元存在』について話したがってるらしい。……あいつら『観客』の正体を知りたいか？</t>
+          <t>怪しい連中が闘技場をうろついてる。『マクマ』とかいう組織らしい。</t>
         </is>
       </c>
     </row>
     <row r="775">
-      <c r="B775" t="inlineStr">
-        <is>
-          <t>quest_info</t>
-        </is>
-      </c>
-      <c r="D775" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>c_accept_upper</t>
+          <t>quest_makuma_info2</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>聞いてみる</t>
+          <t>リリィが詳しく知ってるかもしれねえ。あいつに聞いてみろ。</t>
         </is>
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>聞いてみる</t>
+          <t>リリィが詳しく知ってるかもしれねえ。あいつに聞いてみろ。</t>
         </is>
       </c>
     </row>
@@ -13824,43 +13879,33 @@
           <t>registered_choices</t>
         </is>
       </c>
-      <c r="D776" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H776" t="inlineStr">
-        <is>
-          <t>c_decline_quest</t>
-        </is>
-      </c>
-      <c r="I776" t="inlineStr">
-        <is>
-          <t>今はいい</t>
-        </is>
-      </c>
-      <c r="J776" t="inlineStr">
-        <is>
-          <t>今はいい</t>
-        </is>
-      </c>
     </row>
     <row r="777">
-      <c r="B777" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
-      <c r="D777" t="inlineStr">
-        <is>
-          <t>cancel</t>
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>quest_lily_real_name</t>
         </is>
       </c>
     </row>
     <row r="778">
-      <c r="A778" t="inlineStr">
-        <is>
-          <t>quest_lily_private</t>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>quest_lily_name_info</t>
+        </is>
+      </c>
+      <c r="I778" t="inlineStr">
+        <is>
+          <t>リリィが『真の名』を教えてくれるらしい。</t>
+        </is>
+      </c>
+      <c r="J778" t="inlineStr">
+        <is>
+          <t>リリィが『真の名』を教えてくれるらしい。</t>
         </is>
       </c>
     </row>
@@ -13872,119 +13917,109 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>quest_lily_priv_info</t>
+          <t>quest_lily_name_info2</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>リリィが『自分の過去』について話したいらしい。……珍しいな。興味があるなら聞いてやれ。</t>
+          <t>……あいつを本気で信用するのか？　あいつに話しかけろ。</t>
         </is>
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>リリィが『自分の過去』について話したいらしい。……珍しいな。興味があるなら聞いてやれ。</t>
+          <t>……あいつを本気で信用するのか？　あいつに話しかけろ。</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>quest_info</t>
-        </is>
-      </c>
-      <c r="D780" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H780" t="inlineStr">
-        <is>
-          <t>c_accept_lily_priv</t>
-        </is>
-      </c>
-      <c r="I780" t="inlineStr">
-        <is>
-          <t>話を聞く</t>
-        </is>
-      </c>
-      <c r="J780" t="inlineStr">
-        <is>
-          <t>話を聞く</t>
+          <t>registered_choices</t>
         </is>
       </c>
     </row>
     <row r="781">
-      <c r="B781" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
-      <c r="D781" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H781" t="inlineStr">
-        <is>
-          <t>c_decline_quest</t>
-        </is>
-      </c>
-      <c r="I781" t="inlineStr">
-        <is>
-          <t>遠慮する</t>
-        </is>
-      </c>
-      <c r="J781" t="inlineStr">
-        <is>
-          <t>遠慮する</t>
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>quest_upper_existence</t>
         </is>
       </c>
     </row>
     <row r="782">
-      <c r="B782" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
-      <c r="D782" t="inlineStr">
-        <is>
-          <t>cancel</t>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>quest_upper_info</t>
+        </is>
+      </c>
+      <c r="I782" t="inlineStr">
+        <is>
+          <t>……お前には『観客』の正体を教えておく必要がある。</t>
+        </is>
+      </c>
+      <c r="J782" t="inlineStr">
+        <is>
+          <t>……お前には『観客』の正体を教えておく必要がある。</t>
         </is>
       </c>
     </row>
     <row r="783">
-      <c r="A783" t="inlineStr">
-        <is>
-          <t>quest_balgas_training</t>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>quest_upper_info2</t>
+        </is>
+      </c>
+      <c r="I783" t="inlineStr">
+        <is>
+          <t>聞く覚悟はあるか？　真実は重いぞ。</t>
+        </is>
+      </c>
+      <c r="J783" t="inlineStr">
+        <is>
+          <t>聞く覚悟はあるか？　真実は重いぞ。</t>
         </is>
       </c>
     </row>
     <row r="784">
-      <c r="F784" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>start_upper_existence</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>quest_balgas_info</t>
+          <t>c_accept_upper</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>……おい。俺が直接、お前を鍛えてやろうと思ってる。死にたくなければ付いてこい。</t>
+          <t>聞く</t>
         </is>
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>……おい。俺が直接、お前を鍛えてやろうと思ってる。死にたくなければ付いてこい。</t>
+          <t>聞く</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>quest_info</t>
+          <t>registered_choices</t>
         </is>
       </c>
       <c r="D785" t="inlineStr">
@@ -13994,17 +14029,17 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>c_accept_balgas</t>
+          <t>c_decline_upper</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>ついていく</t>
+          <t>今はいい</t>
         </is>
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>ついていく</t>
+          <t>今はいい</t>
         </is>
       </c>
     </row>
@@ -14016,421 +14051,326 @@
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>c_decline_quest</t>
-        </is>
-      </c>
-      <c r="I786" t="inlineStr">
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>start_upper_existence</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.SayAndStartDrama("sukutsu_arena_master", "……いいだろう。座れ。", "drama_upper_existence");</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>quest_balgas_training</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="F791" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>quest_balgas_info</t>
+        </is>
+      </c>
+      <c r="I791" t="inlineStr">
+        <is>
+          <t>……おい。俺が直接、お前を鍛えてやろうと思ってる。</t>
+        </is>
+      </c>
+      <c r="J791" t="inlineStr">
+        <is>
+          <t>……おい。俺が直接、お前を鍛えてやろうと思ってる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>quest_balgas_info2</t>
+        </is>
+      </c>
+      <c r="I792" t="inlineStr">
+        <is>
+          <t>死にたくなければ付いてこい。どうだ？</t>
+        </is>
+      </c>
+      <c r="J792" t="inlineStr">
+        <is>
+          <t>死にたくなければ付いてこい。どうだ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>start_balgas_training</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>c_accept_balgas</t>
+        </is>
+      </c>
+      <c r="I793" t="inlineStr">
+        <is>
+          <t>ついていく</t>
+        </is>
+      </c>
+      <c r="J793" t="inlineStr">
+        <is>
+          <t>ついていく</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>c_decline_balgas</t>
+        </is>
+      </c>
+      <c r="I794" t="inlineStr">
         <is>
           <t>今はやめておく</t>
         </is>
       </c>
-      <c r="J786" t="inlineStr">
+      <c r="J794" t="inlineStr">
         <is>
           <t>今はやめておく</t>
-        </is>
-      </c>
-    </row>
-    <row r="787">
-      <c r="B787" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
-      <c r="D787" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" t="inlineStr">
-        <is>
-          <t>quest_makuma</t>
-        </is>
-      </c>
-    </row>
-    <row r="789">
-      <c r="F789" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H789" t="inlineStr">
-        <is>
-          <t>quest_makuma_info</t>
-        </is>
-      </c>
-      <c r="I789" t="inlineStr">
-        <is>
-          <t>怪しい連中が闘技場をうろついてる。『マクマ』とかいう組織らしい。……気をつけろ。</t>
-        </is>
-      </c>
-      <c r="J789" t="inlineStr">
-        <is>
-          <t>怪しい連中が闘技場をうろついてる。『マクマ』とかいう組織らしい。……気をつけろ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="790">
-      <c r="B790" t="inlineStr">
-        <is>
-          <t>quest_info</t>
-        </is>
-      </c>
-      <c r="D790" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H790" t="inlineStr">
-        <is>
-          <t>c_accept_makuma</t>
-        </is>
-      </c>
-      <c r="I790" t="inlineStr">
-        <is>
-          <t>調べてみる</t>
-        </is>
-      </c>
-      <c r="J790" t="inlineStr">
-        <is>
-          <t>調べてみる</t>
-        </is>
-      </c>
-    </row>
-    <row r="791">
-      <c r="B791" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
-      <c r="D791" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H791" t="inlineStr">
-        <is>
-          <t>c_decline_quest</t>
-        </is>
-      </c>
-      <c r="I791" t="inlineStr">
-        <is>
-          <t>関わらない</t>
-        </is>
-      </c>
-      <c r="J791" t="inlineStr">
-        <is>
-          <t>関わらない</t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="B792" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
-      <c r="D792" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>quest_makuma2</t>
-        </is>
-      </c>
-    </row>
-    <row r="794">
-      <c r="F794" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H794" t="inlineStr">
-        <is>
-          <t>quest_makuma2_info</t>
-        </is>
-      </c>
-      <c r="I794" t="inlineStr">
-        <is>
-          <t>マクマの連中が何か企んでやがる。リリィも巻き込まれてるかもしれねえ。……調べてくれねえか？</t>
-        </is>
-      </c>
-      <c r="J794" t="inlineStr">
-        <is>
-          <t>マクマの連中が何か企んでやがる。リリィも巻き込まれてるかもしれねえ。……調べてくれねえか？</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>quest_info</t>
+          <t>registered_choices</t>
         </is>
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H795" t="inlineStr">
-        <is>
-          <t>c_accept_makuma2</t>
-        </is>
-      </c>
-      <c r="I795" t="inlineStr">
-        <is>
-          <t>分かった</t>
-        </is>
-      </c>
-      <c r="J795" t="inlineStr">
-        <is>
-          <t>分かった</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="796">
-      <c r="B796" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
-      <c r="D796" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H796" t="inlineStr">
-        <is>
-          <t>c_decline_quest</t>
-        </is>
-      </c>
-      <c r="I796" t="inlineStr">
-        <is>
-          <t>今はやめておく</t>
-        </is>
-      </c>
-      <c r="J796" t="inlineStr">
-        <is>
-          <t>今はやめておく</t>
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>start_balgas_training</t>
         </is>
       </c>
     </row>
     <row r="797">
-      <c r="B797" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.SayAndStartDrama("sukutsu_arena_master", "よし、来い！", "drama_balgas_training");</t>
         </is>
       </c>
     </row>
     <row r="798">
-      <c r="A798" t="inlineStr">
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
         <is>
           <t>quest_vs_balgas</t>
         </is>
       </c>
     </row>
-    <row r="799">
-      <c r="F799" t="inlineStr">
+    <row r="800">
+      <c r="F800" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H799" t="inlineStr">
+      <c r="H800" t="inlineStr">
         <is>
           <t>quest_vs_balgas_info</t>
         </is>
       </c>
-      <c r="I799" t="inlineStr">
-        <is>
-          <t>……おい。俺と本気で戦う気はあるか？　これは試験じゃねえ。俺の『決着』だ。</t>
-        </is>
-      </c>
-      <c r="J799" t="inlineStr">
-        <is>
-          <t>……おい。俺と本気で戦う気はあるか？　これは試験じゃねえ。俺の『決着』だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="800">
-      <c r="B800" t="inlineStr">
-        <is>
-          <t>quest_info</t>
-        </is>
-      </c>
-      <c r="D800" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H800" t="inlineStr">
-        <is>
-          <t>c_accept_vs_balgas</t>
-        </is>
-      </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>受けて立つ</t>
+          <t>……おい。俺と本気で戦う気はあるか？</t>
         </is>
       </c>
       <c r="J800" t="inlineStr">
         <is>
-          <t>受けて立つ</t>
+          <t>……おい。俺と本気で戦う気はあるか？</t>
         </is>
       </c>
     </row>
     <row r="801">
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
-      <c r="D801" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F801" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>c_decline_quest</t>
+          <t>quest_vs_balgas_info2</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>今は遠慮する</t>
+          <t>これは試験じゃねえ。俺の『決着』だ。</t>
         </is>
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>今は遠慮する</t>
+          <t>これは試験じゃねえ。俺の『決着』だ。</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
+          <t>start_vs_balgas</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>c_accept_vs_balgas</t>
+        </is>
+      </c>
+      <c r="I802" t="inlineStr">
+        <is>
+          <t>受けて立つ</t>
+        </is>
+      </c>
+      <c r="J802" t="inlineStr">
+        <is>
+          <t>受けて立つ</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="B803" t="inlineStr">
+        <is>
           <t>registered_choices</t>
         </is>
       </c>
-      <c r="D802" t="inlineStr">
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>c_decline_vs_balgas</t>
+        </is>
+      </c>
+      <c r="I803" t="inlineStr">
+        <is>
+          <t>今は遠慮する</t>
+        </is>
+      </c>
+      <c r="J803" t="inlineStr">
+        <is>
+          <t>今は遠慮する</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>quest_lily_real_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="804">
-      <c r="F804" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H804" t="inlineStr">
-        <is>
-          <t>quest_lily_name_info</t>
-        </is>
-      </c>
-      <c r="I804" t="inlineStr">
-        <is>
-          <t>リリィが『真の名』を教えてくれるらしい。……あいつを本気で信用するのか？　お前の判断だ。</t>
-        </is>
-      </c>
-      <c r="J804" t="inlineStr">
-        <is>
-          <t>リリィが『真の名』を教えてくれるらしい。……あいつを本気で信用するのか？　お前の判断だ。</t>
-        </is>
-      </c>
-    </row>
     <row r="805">
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>quest_info</t>
-        </is>
-      </c>
-      <c r="D805" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H805" t="inlineStr">
-        <is>
-          <t>c_accept_lily_name</t>
-        </is>
-      </c>
-      <c r="I805" t="inlineStr">
-        <is>
-          <t>聞いてみる</t>
-        </is>
-      </c>
-      <c r="J805" t="inlineStr">
-        <is>
-          <t>聞いてみる</t>
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>start_vs_balgas</t>
         </is>
       </c>
     </row>
     <row r="806">
-      <c r="B806" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H806" t="inlineStr">
-        <is>
-          <t>c_decline_quest</t>
-        </is>
-      </c>
-      <c r="I806" t="inlineStr">
-        <is>
-          <t>まだ早い</t>
-        </is>
-      </c>
-      <c r="J806" t="inlineStr">
-        <is>
-          <t>まだ早い</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.SayAndStartDrama("sukutsu_arena_master", "……覚悟はいいな。", "drama_vs_balgas");</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
-      <c r="D807" t="inlineStr">
-        <is>
-          <t>cancel</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>quest_vs_grandmaster_1</t>
+          <t>quest_makuma2</t>
         </is>
       </c>
     </row>
@@ -14442,44 +14382,39 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>quest_gm_info</t>
+          <t>quest_makuma2_info</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>……いよいよだな。グランドマスターとの戦いだ。覚悟はいいか？</t>
+          <t>マクマの連中が何か企んでやがる。リリィも巻き込まれてるかもしれねえ。</t>
         </is>
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>……いよいよだな。グランドマスターとの戦いだ。覚悟はいいか？</t>
+          <t>マクマの連中が何か企んでやがる。リリィも巻き込まれてるかもしれねえ。</t>
         </is>
       </c>
     </row>
     <row r="810">
-      <c r="B810" t="inlineStr">
-        <is>
-          <t>quest_info</t>
-        </is>
-      </c>
-      <c r="D810" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F810" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>c_accept_gm</t>
+          <t>quest_makuma2_info2</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>準備はできた</t>
+          <t>……気をつけろ。</t>
         </is>
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>準備はできた</t>
+          <t>……気をつけろ。</t>
         </is>
       </c>
     </row>
@@ -14489,43 +14424,33 @@
           <t>registered_choices</t>
         </is>
       </c>
-      <c r="D811" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H811" t="inlineStr">
-        <is>
-          <t>c_decline_quest</t>
-        </is>
-      </c>
-      <c r="I811" t="inlineStr">
-        <is>
-          <t>もう少し待ってくれ</t>
-        </is>
-      </c>
-      <c r="J811" t="inlineStr">
-        <is>
-          <t>もう少し待ってくれ</t>
-        </is>
-      </c>
     </row>
     <row r="812">
-      <c r="B812" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
-      <c r="D812" t="inlineStr">
-        <is>
-          <t>cancel</t>
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>quest_vs_grandmaster_1</t>
         </is>
       </c>
     </row>
     <row r="813">
-      <c r="A813" t="inlineStr">
-        <is>
-          <t>quest_last_battle</t>
+      <c r="F813" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>quest_gm_info</t>
+        </is>
+      </c>
+      <c r="I813" t="inlineStr">
+        <is>
+          <t>……いよいよだな。グランドマスターとの戦いが近い。</t>
+        </is>
+      </c>
+      <c r="J813" t="inlineStr">
+        <is>
+          <t>……いよいよだな。グランドマスターとの戦いが近い。</t>
         </is>
       </c>
     </row>
@@ -14537,167 +14462,166 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>quest_last_info</t>
+          <t>quest_gm_info2</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>……これが最後の戦いだ。お前は何のために戦う？　答えを見つけてから来い。</t>
+          <t>覚悟しておけ。</t>
         </is>
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>……これが最後の戦いだ。お前は何のために戦う？　答えを見つけてから来い。</t>
+          <t>覚悟しておけ。</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>quest_last_battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="F817" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>quest_last_info</t>
+        </is>
+      </c>
+      <c r="I817" t="inlineStr">
+        <is>
+          <t>……これが最後の戦いだ。</t>
+        </is>
+      </c>
+      <c r="J817" t="inlineStr">
+        <is>
+          <t>……これが最後の戦いだ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="F818" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>quest_last_info2</t>
+        </is>
+      </c>
+      <c r="I818" t="inlineStr">
+        <is>
+          <t>お前は何のために戦う？　答えを見つけておけ。</t>
+        </is>
+      </c>
+      <c r="J818" t="inlineStr">
+        <is>
+          <t>お前は何のために戦う？　答えを見つけておけ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>registered_choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
           <t>quest_info</t>
         </is>
       </c>
-      <c r="D815" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>c_accept_last</t>
-        </is>
-      </c>
-      <c r="I815" t="inlineStr">
-        <is>
-          <t>行こう</t>
-        </is>
-      </c>
-      <c r="J815" t="inlineStr">
-        <is>
-          <t>行こう</t>
-        </is>
-      </c>
-    </row>
-    <row r="816">
-      <c r="B816" t="inlineStr">
+    </row>
+    <row r="821">
+      <c r="F821" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>quest_accepted</t>
+        </is>
+      </c>
+      <c r="I821" t="inlineStr">
+        <is>
+          <t>よし、頑張れよ。報酬は期待できるかもしれねえぞ。</t>
+        </is>
+      </c>
+      <c r="J821" t="inlineStr">
+        <is>
+          <t>よし、頑張れよ。報酬は期待できるかもしれねえぞ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="B822" t="inlineStr">
         <is>
           <t>registered_choices</t>
         </is>
       </c>
-      <c r="D816" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>c_decline_quest</t>
-        </is>
-      </c>
-      <c r="I816" t="inlineStr">
-        <is>
-          <t>まだだ</t>
-        </is>
-      </c>
-      <c r="J816" t="inlineStr">
-        <is>
-          <t>まだだ</t>
-        </is>
-      </c>
-    </row>
-    <row r="817">
-      <c r="B817" t="inlineStr">
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>quest_none</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="F824" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>no_quest</t>
+        </is>
+      </c>
+      <c r="I824" t="inlineStr">
+        <is>
+          <t>今は特に依頼はねえな。まずは実力をつけることだ。</t>
+        </is>
+      </c>
+      <c r="J824" t="inlineStr">
+        <is>
+          <t>今は特に依頼はねえな。まずは実力をつけることだ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="B825" t="inlineStr">
         <is>
           <t>registered_choices</t>
         </is>
       </c>
-      <c r="D817" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="inlineStr">
-        <is>
-          <t>quest_info</t>
-        </is>
-      </c>
-    </row>
-    <row r="819">
-      <c r="F819" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H819" t="inlineStr">
-        <is>
-          <t>quest_accepted</t>
-        </is>
-      </c>
-      <c r="I819" t="inlineStr">
-        <is>
-          <t>よし、頑張れよ。報酬は期待できるかもしれねえぞ。</t>
-        </is>
-      </c>
-      <c r="J819" t="inlineStr">
-        <is>
-          <t>よし、頑張れよ。報酬は期待できるかもしれねえぞ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="820">
-      <c r="B820" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" t="inlineStr">
-        <is>
-          <t>quest_none</t>
-        </is>
-      </c>
-    </row>
-    <row r="822">
-      <c r="F822" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>no_quest</t>
-        </is>
-      </c>
-      <c r="I822" t="inlineStr">
-        <is>
-          <t>今は特に依頼はねえな。まずは実力をつけることだ。</t>
-        </is>
-      </c>
-      <c r="J822" t="inlineStr">
-        <is>
-          <t>今は特に依頼はねえな。まずは実力をつけることだ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="823">
-      <c r="B823" t="inlineStr">
-        <is>
-          <t>registered_choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" t="inlineStr">
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="825">
-      <c r="D825" t="inlineStr">
+    <row r="827">
+      <c r="D827" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_arena_master.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_sukutsu_arena_master.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -774,6 +774,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_rank_up_trial, ==0)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -790,7 +805,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -812,7 +827,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -832,6 +847,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==0)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -848,7 +878,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -870,7 +900,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -890,6 +920,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==0)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -906,7 +951,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -928,7 +973,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -948,6 +993,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==0)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -964,7 +1024,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -986,7 +1046,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1006,6 +1066,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==0)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1022,7 +1097,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1044,7 +1119,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1064,6 +1139,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==0)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1080,7 +1170,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1102,7 +1192,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1122,6 +1212,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==0)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1138,7 +1243,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1160,7 +1265,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1180,6 +1285,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==0)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6726,7 +6846,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -6748,7 +6868,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -6770,7 +6890,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -6790,6 +6910,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_quest_battle, ==0)</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -6806,7 +6941,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -6828,7 +6963,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -6848,6 +6983,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==0)</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -6864,7 +7014,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -6886,7 +7036,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -6906,6 +7056,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==0)</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -6922,7 +7087,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -6944,7 +7109,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -6964,6 +7129,21 @@
           <t>registered</t>
         </is>
       </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_arena_result, ==0)</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -9059,7 +9239,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
@@ -9081,7 +9261,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
@@ -9103,7 +9283,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
@@ -9125,7 +9305,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
@@ -9147,7 +9327,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
@@ -9169,7 +9349,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
@@ -9191,7 +9371,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
@@ -9211,6 +9391,21 @@
           <t>rank_up_not_ready</t>
         </is>
       </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_quest_target_name, ==0)</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -10361,7 +10556,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
@@ -10383,7 +10578,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
@@ -10405,7 +10600,7 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
@@ -10427,7 +10622,7 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
@@ -10449,7 +10644,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
@@ -10471,7 +10666,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -10493,7 +10688,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -10515,7 +10710,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -10537,7 +10732,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
@@ -10559,7 +10754,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
@@ -10581,7 +10776,7 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
@@ -10603,7 +10798,7 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
@@ -10625,7 +10820,7 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
@@ -10647,7 +10842,7 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
@@ -10669,7 +10864,7 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
@@ -10691,7 +10886,7 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
@@ -10711,6 +10906,21 @@
           <t>greet_default</t>
         </is>
       </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.rank, ==0)</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -14359,7 +14569,7 @@
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E820" t="inlineStr">
@@ -14476,7 +14686,7 @@
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E826" t="inlineStr">
@@ -14593,7 +14803,7 @@
       </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E832" t="inlineStr">
@@ -15400,7 +15610,7 @@
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E883" t="inlineStr">
@@ -15422,7 +15632,7 @@
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E884" t="inlineStr">
@@ -15444,7 +15654,7 @@
       </c>
       <c r="D885" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E885" t="inlineStr">
@@ -15466,7 +15676,7 @@
       </c>
       <c r="D886" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E886" t="inlineStr">
@@ -15488,7 +15698,7 @@
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E887" t="inlineStr">
@@ -15510,7 +15720,7 @@
       </c>
       <c r="D888" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E888" t="inlineStr">
@@ -15532,7 +15742,7 @@
       </c>
       <c r="D889" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E889" t="inlineStr">
@@ -15554,7 +15764,7 @@
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E890" t="inlineStr">
@@ -15576,7 +15786,7 @@
       </c>
       <c r="D891" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E891" t="inlineStr">
@@ -15598,7 +15808,7 @@
       </c>
       <c r="D892" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E892" t="inlineStr">
@@ -15620,7 +15830,7 @@
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E893" t="inlineStr">
@@ -15642,7 +15852,7 @@
       </c>
       <c r="D894" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E894" t="inlineStr">
@@ -15664,7 +15874,7 @@
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E895" t="inlineStr">
@@ -15686,7 +15896,7 @@
       </c>
       <c r="D896" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E896" t="inlineStr">
@@ -15708,7 +15918,7 @@
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E897" t="inlineStr">
@@ -15730,7 +15940,7 @@
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E898" t="inlineStr">
@@ -15752,7 +15962,7 @@
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E899" t="inlineStr">
@@ -15774,7 +15984,7 @@
       </c>
       <c r="D900" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E900" t="inlineStr">
@@ -15796,7 +16006,7 @@
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E901" t="inlineStr">
@@ -15818,7 +16028,7 @@
       </c>
       <c r="D902" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E902" t="inlineStr">
@@ -15836,6 +16046,21 @@
       <c r="B903" t="inlineStr">
         <is>
           <t>quest_none</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>if_flag(sukutsu_quest_target_name, ==0)</t>
+        </is>
+      </c>
+      <c r="F903" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
